--- a/AAII_Financials/Yearly/ACST_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ACST_YR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -712,7 +712,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>4</v>
@@ -812,10 +812,10 @@
         <v>2800</v>
       </c>
       <c r="F12" s="3">
-        <v>51200</v>
+        <v>50900</v>
       </c>
       <c r="G12" s="3">
-        <v>16700</v>
+        <v>16600</v>
       </c>
       <c r="H12" s="3">
         <v>6300</v>
@@ -860,13 +860,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>6800</v>
+        <v>6700</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
@@ -924,25 +924,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>21300</v>
+        <v>21200</v>
       </c>
       <c r="E17" s="3">
-        <v>31300</v>
+        <v>31100</v>
       </c>
       <c r="F17" s="3">
-        <v>44100</v>
+        <v>43800</v>
       </c>
       <c r="G17" s="3">
-        <v>25300</v>
+        <v>25100</v>
       </c>
       <c r="H17" s="3">
-        <v>14400</v>
+        <v>14300</v>
       </c>
       <c r="I17" s="3">
-        <v>12300</v>
+        <v>12200</v>
       </c>
       <c r="J17" s="3">
-        <v>15900</v>
+        <v>15800</v>
       </c>
       <c r="K17" s="3"/>
     </row>
@@ -951,7 +951,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-21100</v>
+        <v>-20900</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>4</v>
@@ -966,10 +966,10 @@
         <v>4</v>
       </c>
       <c r="I18" s="3">
-        <v>-12300</v>
+        <v>-12200</v>
       </c>
       <c r="J18" s="3">
-        <v>-15600</v>
+        <v>-15400</v>
       </c>
       <c r="K18" s="3"/>
     </row>
@@ -1006,10 +1006,10 @@
         <v>4</v>
       </c>
       <c r="I20" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="J20" s="3">
-        <v>13400</v>
+        <v>13300</v>
       </c>
       <c r="K20" s="3"/>
     </row>
@@ -1018,7 +1018,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-24100</v>
+        <v>-23900</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>4</v>
@@ -1033,10 +1033,10 @@
         <v>4</v>
       </c>
       <c r="I21" s="3">
-        <v>-5100</v>
+        <v>-5000</v>
       </c>
       <c r="J21" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="K21" s="3"/>
     </row>
@@ -1057,7 +1057,7 @@
         <v>500</v>
       </c>
       <c r="H22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1072,22 +1072,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-25200</v>
+        <v>-25100</v>
       </c>
       <c r="E23" s="3">
-        <v>-32700</v>
+        <v>-32500</v>
       </c>
       <c r="F23" s="3">
-        <v>-50500</v>
+        <v>-50100</v>
       </c>
       <c r="G23" s="3">
-        <v>-27600</v>
+        <v>-27400</v>
       </c>
       <c r="H23" s="3">
-        <v>-14600</v>
+        <v>-14500</v>
       </c>
       <c r="I23" s="3">
-        <v>-8100</v>
+        <v>-8000</v>
       </c>
       <c r="J23" s="3">
         <v>-2100</v>
@@ -1153,22 +1153,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-25200</v>
+        <v>-25100</v>
       </c>
       <c r="E26" s="3">
-        <v>-32700</v>
+        <v>-32500</v>
       </c>
       <c r="F26" s="3">
-        <v>-50500</v>
+        <v>-50100</v>
       </c>
       <c r="G26" s="3">
-        <v>-27600</v>
+        <v>-27400</v>
       </c>
       <c r="H26" s="3">
-        <v>-14400</v>
+        <v>-14300</v>
       </c>
       <c r="I26" s="3">
-        <v>-8100</v>
+        <v>-8000</v>
       </c>
       <c r="J26" s="3">
         <v>-2100</v>
@@ -1180,22 +1180,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-25200</v>
+        <v>-25100</v>
       </c>
       <c r="E27" s="3">
-        <v>-32700</v>
+        <v>-32500</v>
       </c>
       <c r="F27" s="3">
-        <v>-50500</v>
+        <v>-50100</v>
       </c>
       <c r="G27" s="3">
-        <v>-27600</v>
+        <v>-27400</v>
       </c>
       <c r="H27" s="3">
-        <v>-14400</v>
+        <v>-14300</v>
       </c>
       <c r="I27" s="3">
-        <v>-8100</v>
+        <v>-8000</v>
       </c>
       <c r="J27" s="3">
         <v>-2100</v>
@@ -1330,10 +1330,10 @@
         <v>4</v>
       </c>
       <c r="I32" s="3">
-        <v>-4200</v>
+        <v>-4100</v>
       </c>
       <c r="J32" s="3">
-        <v>-13400</v>
+        <v>-13300</v>
       </c>
       <c r="K32" s="3"/>
     </row>
@@ -1342,22 +1342,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-25200</v>
+        <v>-25100</v>
       </c>
       <c r="E33" s="3">
-        <v>-32700</v>
+        <v>-32500</v>
       </c>
       <c r="F33" s="3">
-        <v>-50500</v>
+        <v>-50100</v>
       </c>
       <c r="G33" s="3">
-        <v>-27600</v>
+        <v>-27400</v>
       </c>
       <c r="H33" s="3">
-        <v>-14400</v>
+        <v>-14300</v>
       </c>
       <c r="I33" s="3">
-        <v>-8100</v>
+        <v>-8000</v>
       </c>
       <c r="J33" s="3">
         <v>-2100</v>
@@ -1396,22 +1396,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-25200</v>
+        <v>-25100</v>
       </c>
       <c r="E35" s="3">
-        <v>-32700</v>
+        <v>-32500</v>
       </c>
       <c r="F35" s="3">
-        <v>-50500</v>
+        <v>-50100</v>
       </c>
       <c r="G35" s="3">
-        <v>-27600</v>
+        <v>-27400</v>
       </c>
       <c r="H35" s="3">
-        <v>-14400</v>
+        <v>-14300</v>
       </c>
       <c r="I35" s="3">
-        <v>-8100</v>
+        <v>-8000</v>
       </c>
       <c r="J35" s="3">
         <v>-2100</v>
@@ -1481,19 +1481,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>65300</v>
+        <v>64900</v>
       </c>
       <c r="E41" s="3">
-        <v>18300</v>
+        <v>18100</v>
       </c>
       <c r="F41" s="3">
-        <v>21600</v>
+        <v>21500</v>
       </c>
       <c r="G41" s="3">
         <v>10500</v>
       </c>
       <c r="H41" s="3">
-        <v>12500</v>
+        <v>12400</v>
       </c>
       <c r="I41" s="3">
         <v>3900</v>
@@ -1508,13 +1508,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>12600</v>
+        <v>12500</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
       </c>
       <c r="F42" s="3">
-        <v>11400</v>
+        <v>11300</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>4</v>
@@ -1526,7 +1526,7 @@
         <v>9500</v>
       </c>
       <c r="J42" s="3">
-        <v>21900</v>
+        <v>21700</v>
       </c>
       <c r="K42" s="3"/>
     </row>
@@ -1592,13 +1592,13 @@
         <v>1400</v>
       </c>
       <c r="E45" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="F45" s="3">
         <v>1400</v>
       </c>
       <c r="G45" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="H45" s="3">
         <v>300</v>
@@ -1616,25 +1616,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>80000</v>
+        <v>79400</v>
       </c>
       <c r="E46" s="3">
-        <v>23700</v>
+        <v>23500</v>
       </c>
       <c r="F46" s="3">
-        <v>35900</v>
+        <v>35600</v>
       </c>
       <c r="G46" s="3">
-        <v>12200</v>
+        <v>12100</v>
       </c>
       <c r="H46" s="3">
-        <v>13100</v>
+        <v>13000</v>
       </c>
       <c r="I46" s="3">
-        <v>14500</v>
+        <v>14400</v>
       </c>
       <c r="J46" s="3">
-        <v>25200</v>
+        <v>25000</v>
       </c>
       <c r="K46" s="3"/>
     </row>
@@ -1700,22 +1700,22 @@
         <v>0</v>
       </c>
       <c r="E49" s="3">
-        <v>10900</v>
+        <v>10800</v>
       </c>
       <c r="F49" s="3">
-        <v>18100</v>
+        <v>18000</v>
       </c>
       <c r="G49" s="3">
-        <v>12900</v>
+        <v>12800</v>
       </c>
       <c r="H49" s="3">
-        <v>15900</v>
+        <v>15800</v>
       </c>
       <c r="I49" s="3">
-        <v>19100</v>
+        <v>19000</v>
       </c>
       <c r="J49" s="3">
-        <v>22400</v>
+        <v>22300</v>
       </c>
       <c r="K49" s="3"/>
     </row>
@@ -1793,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="I52" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>4</v>
@@ -1832,25 +1832,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>80100</v>
+        <v>79600</v>
       </c>
       <c r="E54" s="3">
-        <v>29300</v>
+        <v>29100</v>
       </c>
       <c r="F54" s="3">
-        <v>47300</v>
+        <v>47000</v>
       </c>
       <c r="G54" s="3">
-        <v>29400</v>
+        <v>29200</v>
       </c>
       <c r="H54" s="3">
-        <v>32600</v>
+        <v>32400</v>
       </c>
       <c r="I54" s="3">
-        <v>36600</v>
+        <v>36300</v>
       </c>
       <c r="J54" s="3">
-        <v>47700</v>
+        <v>47400</v>
       </c>
       <c r="K54" s="3"/>
     </row>
@@ -1891,10 +1891,10 @@
         <v>7600</v>
       </c>
       <c r="F57" s="3">
-        <v>34900</v>
+        <v>34600</v>
       </c>
       <c r="G57" s="3">
-        <v>8600</v>
+        <v>8500</v>
       </c>
       <c r="H57" s="3">
         <v>300</v>
@@ -1918,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>4</v>
@@ -1969,13 +1969,13 @@
         <v>2000</v>
       </c>
       <c r="E60" s="3">
-        <v>9500</v>
+        <v>9400</v>
       </c>
       <c r="F60" s="3">
-        <v>17500</v>
+        <v>17400</v>
       </c>
       <c r="G60" s="3">
-        <v>8600</v>
+        <v>8500</v>
       </c>
       <c r="H60" s="3">
         <v>2700</v>
@@ -2020,13 +2020,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6700</v>
+        <v>6600</v>
       </c>
       <c r="E62" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="F62" s="3">
-        <v>15600</v>
+        <v>15500</v>
       </c>
       <c r="G62" s="3">
         <v>8200</v>
@@ -2134,10 +2134,10 @@
         <v>12600</v>
       </c>
       <c r="F66" s="3">
-        <v>33200</v>
+        <v>32900</v>
       </c>
       <c r="G66" s="3">
-        <v>18900</v>
+        <v>18800</v>
       </c>
       <c r="H66" s="3">
         <v>4800</v>
@@ -2276,25 +2276,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-187300</v>
+        <v>-186000</v>
       </c>
       <c r="E72" s="3">
-        <v>-162000</v>
+        <v>-160900</v>
       </c>
       <c r="F72" s="3">
-        <v>-288300</v>
+        <v>-286300</v>
       </c>
       <c r="G72" s="3">
-        <v>-92800</v>
+        <v>-92200</v>
       </c>
       <c r="H72" s="3">
-        <v>-65300</v>
+        <v>-64800</v>
       </c>
       <c r="I72" s="3">
-        <v>-50800</v>
+        <v>-50500</v>
       </c>
       <c r="J72" s="3">
-        <v>-42700</v>
+        <v>-42400</v>
       </c>
       <c r="K72" s="3"/>
     </row>
@@ -2384,25 +2384,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>71400</v>
+        <v>70900</v>
       </c>
       <c r="E76" s="3">
-        <v>16700</v>
+        <v>16600</v>
       </c>
       <c r="F76" s="3">
-        <v>14200</v>
+        <v>14100</v>
       </c>
       <c r="G76" s="3">
         <v>10500</v>
       </c>
       <c r="H76" s="3">
-        <v>27800</v>
+        <v>27600</v>
       </c>
       <c r="I76" s="3">
-        <v>34900</v>
+        <v>34700</v>
       </c>
       <c r="J76" s="3">
-        <v>42600</v>
+        <v>42300</v>
       </c>
       <c r="K76" s="3"/>
     </row>
@@ -2470,22 +2470,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-25200</v>
+        <v>-25100</v>
       </c>
       <c r="E81" s="3">
-        <v>-32700</v>
+        <v>-32500</v>
       </c>
       <c r="F81" s="3">
-        <v>-50500</v>
+        <v>-50100</v>
       </c>
       <c r="G81" s="3">
-        <v>-27600</v>
+        <v>-27400</v>
       </c>
       <c r="H81" s="3">
-        <v>-14400</v>
+        <v>-14300</v>
       </c>
       <c r="I81" s="3">
-        <v>-8100</v>
+        <v>-8000</v>
       </c>
       <c r="J81" s="3">
         <v>-2100</v>
@@ -2672,16 +2672,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-18400</v>
+        <v>-18200</v>
       </c>
       <c r="E89" s="3">
-        <v>-29400</v>
+        <v>-29200</v>
       </c>
       <c r="F89" s="3">
-        <v>-31800</v>
+        <v>-31600</v>
       </c>
       <c r="G89" s="3">
-        <v>-16100</v>
+        <v>-15900</v>
       </c>
       <c r="H89" s="3">
         <v>-8900</v>
@@ -2799,7 +2799,7 @@
         <v>10400</v>
       </c>
       <c r="F94" s="3">
-        <v>-12100</v>
+        <v>-12000</v>
       </c>
       <c r="G94" s="3">
         <v>-500</v>
@@ -2808,10 +2808,10 @@
         <v>8800</v>
       </c>
       <c r="I94" s="3">
-        <v>10600</v>
+        <v>10500</v>
       </c>
       <c r="J94" s="3">
-        <v>9800</v>
+        <v>9700</v>
       </c>
       <c r="K94" s="3"/>
     </row>
@@ -2941,19 +2941,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>76300</v>
+        <v>75800</v>
       </c>
       <c r="E100" s="3">
-        <v>16900</v>
+        <v>16800</v>
       </c>
       <c r="F100" s="3">
-        <v>58600</v>
+        <v>58200</v>
       </c>
       <c r="G100" s="3">
-        <v>14600</v>
+        <v>14500</v>
       </c>
       <c r="H100" s="3">
-        <v>8800</v>
+        <v>8700</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
@@ -2995,19 +2995,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>47100</v>
+        <v>46800</v>
       </c>
       <c r="E102" s="3">
         <v>-3400</v>
       </c>
       <c r="F102" s="3">
-        <v>13400</v>
+        <v>13300</v>
       </c>
       <c r="G102" s="3">
         <v>-2000</v>
       </c>
       <c r="H102" s="3">
-        <v>8700</v>
+        <v>8600</v>
       </c>
       <c r="I102" s="3">
         <v>2200</v>

--- a/AAII_Financials/Yearly/ACST_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ACST_YR_FIN.xlsx
@@ -969,7 +969,7 @@
         <v>-12200</v>
       </c>
       <c r="J18" s="3">
-        <v>-15400</v>
+        <v>-15500</v>
       </c>
       <c r="K18" s="3"/>
     </row>
@@ -1006,7 +1006,7 @@
         <v>4</v>
       </c>
       <c r="I20" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="J20" s="3">
         <v>13300</v>
@@ -1078,7 +1078,7 @@
         <v>-32500</v>
       </c>
       <c r="F23" s="3">
-        <v>-50100</v>
+        <v>-50200</v>
       </c>
       <c r="G23" s="3">
         <v>-27400</v>
@@ -1159,7 +1159,7 @@
         <v>-32500</v>
       </c>
       <c r="F26" s="3">
-        <v>-50100</v>
+        <v>-50200</v>
       </c>
       <c r="G26" s="3">
         <v>-27400</v>
@@ -1186,7 +1186,7 @@
         <v>-32500</v>
       </c>
       <c r="F27" s="3">
-        <v>-50100</v>
+        <v>-50200</v>
       </c>
       <c r="G27" s="3">
         <v>-27400</v>
@@ -1330,7 +1330,7 @@
         <v>4</v>
       </c>
       <c r="I32" s="3">
-        <v>-4100</v>
+        <v>-4200</v>
       </c>
       <c r="J32" s="3">
         <v>-13300</v>
@@ -1348,7 +1348,7 @@
         <v>-32500</v>
       </c>
       <c r="F33" s="3">
-        <v>-50100</v>
+        <v>-50200</v>
       </c>
       <c r="G33" s="3">
         <v>-27400</v>
@@ -1402,7 +1402,7 @@
         <v>-32500</v>
       </c>
       <c r="F35" s="3">
-        <v>-50100</v>
+        <v>-50200</v>
       </c>
       <c r="G35" s="3">
         <v>-27400</v>
@@ -1493,7 +1493,7 @@
         <v>10500</v>
       </c>
       <c r="H41" s="3">
-        <v>12400</v>
+        <v>12500</v>
       </c>
       <c r="I41" s="3">
         <v>3900</v>
@@ -1526,7 +1526,7 @@
         <v>9500</v>
       </c>
       <c r="J42" s="3">
-        <v>21700</v>
+        <v>21800</v>
       </c>
       <c r="K42" s="3"/>
     </row>
@@ -1616,7 +1616,7 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>79400</v>
+        <v>79500</v>
       </c>
       <c r="E46" s="3">
         <v>23500</v>
@@ -1841,7 +1841,7 @@
         <v>47000</v>
       </c>
       <c r="G54" s="3">
-        <v>29200</v>
+        <v>29300</v>
       </c>
       <c r="H54" s="3">
         <v>32400</v>
@@ -2020,7 +2020,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="E62" s="3">
         <v>3100</v>
@@ -2276,13 +2276,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-186000</v>
+        <v>-186100</v>
       </c>
       <c r="E72" s="3">
-        <v>-160900</v>
+        <v>-161000</v>
       </c>
       <c r="F72" s="3">
-        <v>-286300</v>
+        <v>-286400</v>
       </c>
       <c r="G72" s="3">
         <v>-92200</v>
@@ -2396,7 +2396,7 @@
         <v>10500</v>
       </c>
       <c r="H76" s="3">
-        <v>27600</v>
+        <v>27700</v>
       </c>
       <c r="I76" s="3">
         <v>34700</v>
@@ -2476,7 +2476,7 @@
         <v>-32500</v>
       </c>
       <c r="F81" s="3">
-        <v>-50100</v>
+        <v>-50200</v>
       </c>
       <c r="G81" s="3">
         <v>-27400</v>
@@ -2681,7 +2681,7 @@
         <v>-31600</v>
       </c>
       <c r="G89" s="3">
-        <v>-15900</v>
+        <v>-16000</v>
       </c>
       <c r="H89" s="3">
         <v>-8900</v>

--- a/AAII_Financials/Yearly/ACST_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ACST_YR_FIN.xlsx
@@ -712,7 +712,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>4</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K8" s="3"/>
     </row>
@@ -806,25 +806,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="E12" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="F12" s="3">
-        <v>50900</v>
+        <v>52100</v>
       </c>
       <c r="G12" s="3">
-        <v>16600</v>
+        <v>17000</v>
       </c>
       <c r="H12" s="3">
+        <v>6400</v>
+      </c>
+      <c r="I12" s="3">
         <v>6300</v>
       </c>
-      <c r="I12" s="3">
-        <v>6200</v>
-      </c>
       <c r="J12" s="3">
-        <v>8300</v>
+        <v>8500</v>
       </c>
       <c r="K12" s="3"/>
     </row>
@@ -860,13 +860,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>6700</v>
+        <v>6900</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
@@ -896,10 +896,10 @@
         <v>3000</v>
       </c>
       <c r="G15" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="H15" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="I15" s="3">
         <v>3100</v>
@@ -924,25 +924,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>21200</v>
+        <v>21700</v>
       </c>
       <c r="E17" s="3">
-        <v>31100</v>
+        <v>31900</v>
       </c>
       <c r="F17" s="3">
-        <v>43800</v>
+        <v>44900</v>
       </c>
       <c r="G17" s="3">
-        <v>25100</v>
+        <v>25700</v>
       </c>
       <c r="H17" s="3">
-        <v>14300</v>
+        <v>14600</v>
       </c>
       <c r="I17" s="3">
-        <v>12200</v>
+        <v>12500</v>
       </c>
       <c r="J17" s="3">
-        <v>15800</v>
+        <v>16200</v>
       </c>
       <c r="K17" s="3"/>
     </row>
@@ -951,7 +951,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-20900</v>
+        <v>-21400</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>4</v>
@@ -966,10 +966,10 @@
         <v>4</v>
       </c>
       <c r="I18" s="3">
-        <v>-12200</v>
+        <v>-12500</v>
       </c>
       <c r="J18" s="3">
-        <v>-15500</v>
+        <v>-15800</v>
       </c>
       <c r="K18" s="3"/>
     </row>
@@ -991,7 +991,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-4200</v>
+        <v>-4300</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>4</v>
@@ -1009,7 +1009,7 @@
         <v>4200</v>
       </c>
       <c r="J20" s="3">
-        <v>13300</v>
+        <v>13700</v>
       </c>
       <c r="K20" s="3"/>
     </row>
@@ -1018,7 +1018,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-23900</v>
+        <v>-24500</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>4</v>
@@ -1033,7 +1033,7 @@
         <v>4</v>
       </c>
       <c r="I21" s="3">
-        <v>-5000</v>
+        <v>-5100</v>
       </c>
       <c r="J21" s="3">
         <v>900</v>
@@ -1057,7 +1057,7 @@
         <v>500</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1072,25 +1072,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-25100</v>
+        <v>-25700</v>
       </c>
       <c r="E23" s="3">
-        <v>-32500</v>
+        <v>-33300</v>
       </c>
       <c r="F23" s="3">
-        <v>-50200</v>
+        <v>-51300</v>
       </c>
       <c r="G23" s="3">
-        <v>-27400</v>
+        <v>-28000</v>
       </c>
       <c r="H23" s="3">
-        <v>-14500</v>
+        <v>-14800</v>
       </c>
       <c r="I23" s="3">
-        <v>-8000</v>
+        <v>-8200</v>
       </c>
       <c r="J23" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="K23" s="3"/>
     </row>
@@ -1153,25 +1153,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-25100</v>
+        <v>-25700</v>
       </c>
       <c r="E26" s="3">
-        <v>-32500</v>
+        <v>-33300</v>
       </c>
       <c r="F26" s="3">
-        <v>-50200</v>
+        <v>-51300</v>
       </c>
       <c r="G26" s="3">
-        <v>-27400</v>
+        <v>-28000</v>
       </c>
       <c r="H26" s="3">
-        <v>-14300</v>
+        <v>-14700</v>
       </c>
       <c r="I26" s="3">
-        <v>-8000</v>
+        <v>-8200</v>
       </c>
       <c r="J26" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="K26" s="3"/>
     </row>
@@ -1180,25 +1180,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-25100</v>
+        <v>-25700</v>
       </c>
       <c r="E27" s="3">
-        <v>-32500</v>
+        <v>-33300</v>
       </c>
       <c r="F27" s="3">
-        <v>-50200</v>
+        <v>-51300</v>
       </c>
       <c r="G27" s="3">
-        <v>-27400</v>
+        <v>-28000</v>
       </c>
       <c r="H27" s="3">
-        <v>-14300</v>
+        <v>-14700</v>
       </c>
       <c r="I27" s="3">
-        <v>-8000</v>
+        <v>-8200</v>
       </c>
       <c r="J27" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="K27" s="3"/>
     </row>
@@ -1315,7 +1315,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>4</v>
@@ -1333,7 +1333,7 @@
         <v>-4200</v>
       </c>
       <c r="J32" s="3">
-        <v>-13300</v>
+        <v>-13700</v>
       </c>
       <c r="K32" s="3"/>
     </row>
@@ -1342,25 +1342,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-25100</v>
+        <v>-25700</v>
       </c>
       <c r="E33" s="3">
-        <v>-32500</v>
+        <v>-33300</v>
       </c>
       <c r="F33" s="3">
-        <v>-50200</v>
+        <v>-51300</v>
       </c>
       <c r="G33" s="3">
-        <v>-27400</v>
+        <v>-28000</v>
       </c>
       <c r="H33" s="3">
-        <v>-14300</v>
+        <v>-14700</v>
       </c>
       <c r="I33" s="3">
-        <v>-8000</v>
+        <v>-8200</v>
       </c>
       <c r="J33" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="K33" s="3"/>
     </row>
@@ -1396,25 +1396,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-25100</v>
+        <v>-25700</v>
       </c>
       <c r="E35" s="3">
-        <v>-32500</v>
+        <v>-33300</v>
       </c>
       <c r="F35" s="3">
-        <v>-50200</v>
+        <v>-51300</v>
       </c>
       <c r="G35" s="3">
-        <v>-27400</v>
+        <v>-28000</v>
       </c>
       <c r="H35" s="3">
-        <v>-14300</v>
+        <v>-14700</v>
       </c>
       <c r="I35" s="3">
-        <v>-8000</v>
+        <v>-8200</v>
       </c>
       <c r="J35" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="K35" s="3"/>
     </row>
@@ -1481,19 +1481,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>64900</v>
+        <v>66400</v>
       </c>
       <c r="E41" s="3">
-        <v>18100</v>
+        <v>18600</v>
       </c>
       <c r="F41" s="3">
-        <v>21500</v>
+        <v>22000</v>
       </c>
       <c r="G41" s="3">
-        <v>10500</v>
+        <v>10700</v>
       </c>
       <c r="H41" s="3">
-        <v>12500</v>
+        <v>12700</v>
       </c>
       <c r="I41" s="3">
         <v>3900</v>
@@ -1508,13 +1508,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>12500</v>
+        <v>12800</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
       </c>
       <c r="F42" s="3">
-        <v>11300</v>
+        <v>11600</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>4</v>
@@ -1523,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="I42" s="3">
-        <v>9500</v>
+        <v>9700</v>
       </c>
       <c r="J42" s="3">
-        <v>21800</v>
+        <v>22300</v>
       </c>
       <c r="K42" s="3"/>
     </row>
@@ -1541,7 +1541,7 @@
         <v>1400</v>
       </c>
       <c r="F43" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="G43" s="3">
         <v>1000</v>
@@ -1592,13 +1592,13 @@
         <v>1400</v>
       </c>
       <c r="E45" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="F45" s="3">
         <v>1400</v>
       </c>
       <c r="G45" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H45" s="3">
         <v>300</v>
@@ -1616,25 +1616,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>79500</v>
+        <v>81400</v>
       </c>
       <c r="E46" s="3">
-        <v>23500</v>
+        <v>24100</v>
       </c>
       <c r="F46" s="3">
-        <v>35600</v>
+        <v>36500</v>
       </c>
       <c r="G46" s="3">
-        <v>12100</v>
+        <v>12400</v>
       </c>
       <c r="H46" s="3">
-        <v>13000</v>
+        <v>13300</v>
       </c>
       <c r="I46" s="3">
-        <v>14400</v>
+        <v>14800</v>
       </c>
       <c r="J46" s="3">
-        <v>25000</v>
+        <v>25600</v>
       </c>
       <c r="K46" s="3"/>
     </row>
@@ -1673,16 +1673,16 @@
         <v>100</v>
       </c>
       <c r="E48" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="F48" s="3">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="G48" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="H48" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="I48" s="3">
         <v>400</v>
@@ -1700,22 +1700,22 @@
         <v>0</v>
       </c>
       <c r="E49" s="3">
-        <v>10800</v>
+        <v>11100</v>
       </c>
       <c r="F49" s="3">
-        <v>18000</v>
+        <v>18400</v>
       </c>
       <c r="G49" s="3">
-        <v>12800</v>
+        <v>13100</v>
       </c>
       <c r="H49" s="3">
-        <v>15800</v>
+        <v>16200</v>
       </c>
       <c r="I49" s="3">
-        <v>19000</v>
+        <v>19400</v>
       </c>
       <c r="J49" s="3">
-        <v>22300</v>
+        <v>22800</v>
       </c>
       <c r="K49" s="3"/>
     </row>
@@ -1784,7 +1784,7 @@
         <v>600</v>
       </c>
       <c r="F52" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="G52" s="3">
         <v>700</v>
@@ -1793,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="I52" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>4</v>
@@ -1832,25 +1832,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>79600</v>
+        <v>81500</v>
       </c>
       <c r="E54" s="3">
-        <v>29100</v>
+        <v>29800</v>
       </c>
       <c r="F54" s="3">
-        <v>47000</v>
+        <v>48100</v>
       </c>
       <c r="G54" s="3">
-        <v>29300</v>
+        <v>29900</v>
       </c>
       <c r="H54" s="3">
-        <v>32400</v>
+        <v>33200</v>
       </c>
       <c r="I54" s="3">
-        <v>36300</v>
+        <v>37200</v>
       </c>
       <c r="J54" s="3">
-        <v>47400</v>
+        <v>48500</v>
       </c>
       <c r="K54" s="3"/>
     </row>
@@ -1888,13 +1888,13 @@
         <v>900</v>
       </c>
       <c r="E57" s="3">
-        <v>7600</v>
+        <v>7800</v>
       </c>
       <c r="F57" s="3">
-        <v>34600</v>
+        <v>35400</v>
       </c>
       <c r="G57" s="3">
-        <v>8500</v>
+        <v>8700</v>
       </c>
       <c r="H57" s="3">
         <v>300</v>
@@ -1918,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>4</v>
@@ -1942,7 +1942,7 @@
         <v>1100</v>
       </c>
       <c r="E59" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="F59" s="3">
         <v>2000</v>
@@ -1951,7 +1951,7 @@
         <v>4</v>
       </c>
       <c r="H59" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="I59" s="3">
         <v>1000</v>
@@ -1966,19 +1966,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="E60" s="3">
-        <v>9400</v>
+        <v>9600</v>
       </c>
       <c r="F60" s="3">
-        <v>17400</v>
+        <v>17800</v>
       </c>
       <c r="G60" s="3">
-        <v>8500</v>
+        <v>8700</v>
       </c>
       <c r="H60" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="I60" s="3">
         <v>1500</v>
@@ -2020,16 +2020,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="E62" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="F62" s="3">
-        <v>15500</v>
+        <v>15900</v>
       </c>
       <c r="G62" s="3">
-        <v>8200</v>
+        <v>8400</v>
       </c>
       <c r="H62" s="3">
         <v>300</v>
@@ -2038,7 +2038,7 @@
         <v>200</v>
       </c>
       <c r="J62" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="K62" s="3"/>
     </row>
@@ -2128,25 +2128,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>8700</v>
+        <v>8900</v>
       </c>
       <c r="E66" s="3">
-        <v>12600</v>
+        <v>12900</v>
       </c>
       <c r="F66" s="3">
-        <v>32900</v>
+        <v>33700</v>
       </c>
       <c r="G66" s="3">
-        <v>18800</v>
+        <v>19200</v>
       </c>
       <c r="H66" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="I66" s="3">
         <v>1700</v>
       </c>
       <c r="J66" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="K66" s="3"/>
     </row>
@@ -2276,25 +2276,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-186100</v>
+        <v>-190500</v>
       </c>
       <c r="E72" s="3">
-        <v>-161000</v>
+        <v>-164800</v>
       </c>
       <c r="F72" s="3">
-        <v>-286400</v>
+        <v>-293200</v>
       </c>
       <c r="G72" s="3">
-        <v>-92200</v>
+        <v>-94400</v>
       </c>
       <c r="H72" s="3">
-        <v>-64800</v>
+        <v>-66400</v>
       </c>
       <c r="I72" s="3">
-        <v>-50500</v>
+        <v>-51700</v>
       </c>
       <c r="J72" s="3">
-        <v>-42400</v>
+        <v>-43500</v>
       </c>
       <c r="K72" s="3"/>
     </row>
@@ -2384,25 +2384,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>70900</v>
+        <v>72600</v>
       </c>
       <c r="E76" s="3">
-        <v>16600</v>
+        <v>16900</v>
       </c>
       <c r="F76" s="3">
-        <v>14100</v>
+        <v>14400</v>
       </c>
       <c r="G76" s="3">
-        <v>10500</v>
+        <v>10700</v>
       </c>
       <c r="H76" s="3">
-        <v>27700</v>
+        <v>28300</v>
       </c>
       <c r="I76" s="3">
-        <v>34700</v>
+        <v>35500</v>
       </c>
       <c r="J76" s="3">
-        <v>42300</v>
+        <v>43300</v>
       </c>
       <c r="K76" s="3"/>
     </row>
@@ -2470,25 +2470,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-25100</v>
+        <v>-25700</v>
       </c>
       <c r="E81" s="3">
-        <v>-32500</v>
+        <v>-33300</v>
       </c>
       <c r="F81" s="3">
-        <v>-50200</v>
+        <v>-51300</v>
       </c>
       <c r="G81" s="3">
-        <v>-27400</v>
+        <v>-28000</v>
       </c>
       <c r="H81" s="3">
-        <v>-14300</v>
+        <v>-14700</v>
       </c>
       <c r="I81" s="3">
-        <v>-8000</v>
+        <v>-8200</v>
       </c>
       <c r="J81" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="K81" s="3"/>
     </row>
@@ -2519,10 +2519,10 @@
         <v>3000</v>
       </c>
       <c r="G83" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="H83" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="I83" s="3">
         <v>3100</v>
@@ -2672,25 +2672,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-18200</v>
+        <v>-18700</v>
       </c>
       <c r="E89" s="3">
-        <v>-29200</v>
+        <v>-29900</v>
       </c>
       <c r="F89" s="3">
-        <v>-31600</v>
+        <v>-32300</v>
       </c>
       <c r="G89" s="3">
-        <v>-16000</v>
+        <v>-16300</v>
       </c>
       <c r="H89" s="3">
-        <v>-8900</v>
+        <v>-9100</v>
       </c>
       <c r="I89" s="3">
-        <v>-8400</v>
+        <v>-8600</v>
       </c>
       <c r="J89" s="3">
-        <v>-9200</v>
+        <v>-9400</v>
       </c>
       <c r="K89" s="3"/>
     </row>
@@ -2724,7 +2724,7 @@
         <v>-600</v>
       </c>
       <c r="H91" s="3">
-        <v>-3200</v>
+        <v>-3300</v>
       </c>
       <c r="I91" s="3">
         <v>-400</v>
@@ -2793,25 +2793,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-12600</v>
+        <v>-12900</v>
       </c>
       <c r="E94" s="3">
-        <v>10400</v>
+        <v>10600</v>
       </c>
       <c r="F94" s="3">
-        <v>-12000</v>
+        <v>-12300</v>
       </c>
       <c r="G94" s="3">
         <v>-500</v>
       </c>
       <c r="H94" s="3">
-        <v>8800</v>
+        <v>9000</v>
       </c>
       <c r="I94" s="3">
-        <v>10500</v>
+        <v>10700</v>
       </c>
       <c r="J94" s="3">
-        <v>9700</v>
+        <v>9900</v>
       </c>
       <c r="K94" s="3"/>
     </row>
@@ -2941,19 +2941,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>75800</v>
+        <v>77600</v>
       </c>
       <c r="E100" s="3">
-        <v>16800</v>
+        <v>17200</v>
       </c>
       <c r="F100" s="3">
-        <v>58200</v>
+        <v>59600</v>
       </c>
       <c r="G100" s="3">
-        <v>14500</v>
+        <v>14900</v>
       </c>
       <c r="H100" s="3">
-        <v>8700</v>
+        <v>9000</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
@@ -2995,19 +2995,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>46800</v>
+        <v>47900</v>
       </c>
       <c r="E102" s="3">
         <v>-3400</v>
       </c>
       <c r="F102" s="3">
-        <v>13300</v>
+        <v>13600</v>
       </c>
       <c r="G102" s="3">
         <v>-2000</v>
       </c>
       <c r="H102" s="3">
-        <v>8600</v>
+        <v>8800</v>
       </c>
       <c r="I102" s="3">
         <v>2200</v>

--- a/AAII_Financials/Yearly/ACST_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ACST_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
   <si>
     <t>ACST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,58 +665,61 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43190</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42825</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42429</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42063</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3">
         <v>300</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F8" s="3" t="s">
         <v>4</v>
       </c>
@@ -726,24 +729,27 @@
       <c r="H8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
+      <c r="I8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
         <v>400</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="3">
         <v>100</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F9" s="3" t="s">
         <v>4</v>
       </c>
@@ -753,24 +759,27 @@
       <c r="H9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="3">
         <v>100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>300</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="3">
         <v>200</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F10" s="3" t="s">
         <v>4</v>
       </c>
@@ -780,15 +789,18 @@
       <c r="H10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="3">
         <v>-100</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -800,35 +812,39 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>2400</v>
+        <v>3200</v>
       </c>
       <c r="E12" s="3">
-        <v>2900</v>
+        <v>2300</v>
       </c>
       <c r="F12" s="3">
-        <v>52100</v>
+        <v>2800</v>
       </c>
       <c r="G12" s="3">
-        <v>17000</v>
+        <v>51600</v>
       </c>
       <c r="H12" s="3">
+        <v>16800</v>
+      </c>
+      <c r="I12" s="3">
         <v>6400</v>
       </c>
-      <c r="I12" s="3">
-        <v>6300</v>
-      </c>
       <c r="J12" s="3">
+        <v>6200</v>
+      </c>
+      <c r="K12" s="3">
         <v>8500</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -853,63 +869,72 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>6900</v>
+        <v>300</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>7400</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>1000</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>400</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
         <v>1200</v>
-      </c>
-      <c r="E15" s="3">
-        <v>3000</v>
       </c>
       <c r="F15" s="3">
         <v>3000</v>
       </c>
       <c r="G15" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H15" s="3">
         <v>3500</v>
       </c>
-      <c r="H15" s="3">
-        <v>3600</v>
-      </c>
       <c r="I15" s="3">
+        <v>3500</v>
+      </c>
+      <c r="J15" s="3">
         <v>3100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>3000</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -918,43 +943,47 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>21700</v>
+        <v>20100</v>
       </c>
       <c r="E17" s="3">
-        <v>31900</v>
+        <v>21500</v>
       </c>
       <c r="F17" s="3">
-        <v>44900</v>
+        <v>31600</v>
       </c>
       <c r="G17" s="3">
-        <v>25700</v>
+        <v>44500</v>
       </c>
       <c r="H17" s="3">
-        <v>14600</v>
+        <v>25500</v>
       </c>
       <c r="I17" s="3">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="J17" s="3">
+        <v>12400</v>
+      </c>
+      <c r="K17" s="3">
         <v>16200</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>-21400</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-21200</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>4</v>
@@ -965,15 +994,18 @@
       <c r="H18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I18" s="3">
-        <v>-12500</v>
+      <c r="I18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J18" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="K18" s="3">
         <v>-15800</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -985,16 +1017,17 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>-4300</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-4200</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>4</v>
@@ -1005,23 +1038,26 @@
       <c r="H20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="3">
         <v>4200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>13700</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-24500</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
+        <v>-13500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-24200</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>4</v>
@@ -1032,96 +1068,108 @@
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3">
         <v>-5100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>900</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-25700</v>
+        <v>-13500</v>
       </c>
       <c r="E23" s="3">
-        <v>-33300</v>
+        <v>-25400</v>
       </c>
       <c r="F23" s="3">
-        <v>-51300</v>
+        <v>-33000</v>
       </c>
       <c r="G23" s="3">
-        <v>-28000</v>
+        <v>-50900</v>
       </c>
       <c r="H23" s="3">
-        <v>-14800</v>
+        <v>-27800</v>
       </c>
       <c r="I23" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="J23" s="3">
         <v>-8200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2200</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>4</v>
+      <c r="D24" s="3">
+        <v>-800</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
+      <c r="F24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-200</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1146,63 +1194,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-25700</v>
+        <v>-12700</v>
       </c>
       <c r="E26" s="3">
-        <v>-33300</v>
+        <v>-25400</v>
       </c>
       <c r="F26" s="3">
-        <v>-51300</v>
+        <v>-33000</v>
       </c>
       <c r="G26" s="3">
-        <v>-28000</v>
+        <v>-50900</v>
       </c>
       <c r="H26" s="3">
-        <v>-14700</v>
+        <v>-27800</v>
       </c>
       <c r="I26" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="J26" s="3">
         <v>-8200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2200</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-25700</v>
+        <v>-12700</v>
       </c>
       <c r="E27" s="3">
-        <v>-33300</v>
+        <v>-25400</v>
       </c>
       <c r="F27" s="3">
-        <v>-51300</v>
+        <v>-33000</v>
       </c>
       <c r="G27" s="3">
-        <v>-28000</v>
+        <v>-50900</v>
       </c>
       <c r="H27" s="3">
-        <v>-14700</v>
+        <v>-27800</v>
       </c>
       <c r="I27" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="J27" s="3">
         <v>-8200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2200</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1227,9 +1284,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1254,9 +1314,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1281,9 +1344,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1308,17 +1374,20 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>4300</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="3">
+        <v>4200</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>4</v>
@@ -1329,42 +1398,48 @@
       <c r="H32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="3">
         <v>-4200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-13700</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-25700</v>
+        <v>-12700</v>
       </c>
       <c r="E33" s="3">
-        <v>-33300</v>
+        <v>-25400</v>
       </c>
       <c r="F33" s="3">
-        <v>-51300</v>
+        <v>-33000</v>
       </c>
       <c r="G33" s="3">
-        <v>-28000</v>
+        <v>-50900</v>
       </c>
       <c r="H33" s="3">
-        <v>-14700</v>
+        <v>-27800</v>
       </c>
       <c r="I33" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="J33" s="3">
         <v>-8200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2200</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1389,68 +1464,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-25700</v>
+        <v>-12700</v>
       </c>
       <c r="E35" s="3">
-        <v>-33300</v>
+        <v>-25400</v>
       </c>
       <c r="F35" s="3">
-        <v>-51300</v>
+        <v>-33000</v>
       </c>
       <c r="G35" s="3">
-        <v>-28000</v>
+        <v>-50900</v>
       </c>
       <c r="H35" s="3">
-        <v>-14700</v>
+        <v>-27800</v>
       </c>
       <c r="I35" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="J35" s="3">
         <v>-8200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2200</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43190</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42825</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42429</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42063</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1462,8 +1546,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1475,62 +1560,69 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>66400</v>
+        <v>39200</v>
       </c>
       <c r="E41" s="3">
-        <v>18600</v>
+        <v>65800</v>
       </c>
       <c r="F41" s="3">
-        <v>22000</v>
+        <v>18400</v>
       </c>
       <c r="G41" s="3">
-        <v>10700</v>
+        <v>21800</v>
       </c>
       <c r="H41" s="3">
-        <v>12700</v>
+        <v>10600</v>
       </c>
       <c r="I41" s="3">
+        <v>12600</v>
+      </c>
+      <c r="J41" s="3">
         <v>3900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1700</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>12800</v>
+        <v>17200</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
+        <v>12700</v>
       </c>
       <c r="F42" s="3">
-        <v>11600</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>11500</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I42" s="3">
-        <v>9700</v>
+        <v>0</v>
       </c>
       <c r="J42" s="3">
+        <v>9600</v>
+      </c>
+      <c r="K42" s="3">
         <v>22300</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1538,124 +1630,136 @@
         <v>700</v>
       </c>
       <c r="E43" s="3">
+        <v>700</v>
+      </c>
+      <c r="F43" s="3">
         <v>1400</v>
       </c>
-      <c r="F43" s="3">
-        <v>1600</v>
-      </c>
       <c r="G43" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H43" s="3">
         <v>1000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1100</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
       </c>
       <c r="I44" s="3">
         <v>0</v>
       </c>
       <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3">
         <v>100</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E45" s="3">
         <v>1400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>400</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>81400</v>
+        <v>58800</v>
       </c>
       <c r="E46" s="3">
-        <v>24100</v>
+        <v>80600</v>
       </c>
       <c r="F46" s="3">
-        <v>36500</v>
+        <v>23900</v>
       </c>
       <c r="G46" s="3">
-        <v>12400</v>
+        <v>36100</v>
       </c>
       <c r="H46" s="3">
-        <v>13300</v>
+        <v>12300</v>
       </c>
       <c r="I46" s="3">
-        <v>14800</v>
+        <v>13200</v>
       </c>
       <c r="J46" s="3">
+        <v>14600</v>
+      </c>
+      <c r="K46" s="3">
         <v>25600</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
+      <c r="E47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
         <v>100</v>
       </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>4</v>
+      <c r="H47" s="3">
+        <v>0</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>4</v>
@@ -1663,63 +1767,72 @@
       <c r="J47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>400</v>
+      </c>
+      <c r="E48" s="3">
         <v>100</v>
       </c>
-      <c r="E48" s="3">
-        <v>2900</v>
-      </c>
       <c r="F48" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G48" s="3">
         <v>6400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I48" s="3">
         <v>3700</v>
       </c>
-      <c r="H48" s="3">
-        <v>3800</v>
-      </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>100</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
+        <v>107000</v>
       </c>
       <c r="E49" s="3">
-        <v>11100</v>
+        <v>0</v>
       </c>
       <c r="F49" s="3">
-        <v>18400</v>
+        <v>11000</v>
       </c>
       <c r="G49" s="3">
-        <v>13100</v>
+        <v>18300</v>
       </c>
       <c r="H49" s="3">
-        <v>16200</v>
+        <v>13000</v>
       </c>
       <c r="I49" s="3">
-        <v>19400</v>
+        <v>16000</v>
       </c>
       <c r="J49" s="3">
+        <v>19300</v>
+      </c>
+      <c r="K49" s="3">
         <v>22800</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1744,9 +1857,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1771,36 +1887,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="3">
         <v>600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>700</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
       <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
         <v>2600</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1825,36 +1947,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>81500</v>
+        <v>166200</v>
       </c>
       <c r="E54" s="3">
-        <v>29800</v>
+        <v>80700</v>
       </c>
       <c r="F54" s="3">
-        <v>48100</v>
+        <v>29500</v>
       </c>
       <c r="G54" s="3">
-        <v>29900</v>
+        <v>47700</v>
       </c>
       <c r="H54" s="3">
-        <v>33200</v>
+        <v>29700</v>
       </c>
       <c r="I54" s="3">
-        <v>37200</v>
+        <v>32900</v>
       </c>
       <c r="J54" s="3">
+        <v>36900</v>
+      </c>
+      <c r="K54" s="3">
         <v>48500</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1866,8 +1994,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1879,50 +2008,54 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E57" s="3">
         <v>900</v>
       </c>
-      <c r="E57" s="3">
-        <v>7800</v>
-      </c>
       <c r="F57" s="3">
-        <v>35400</v>
+        <v>7700</v>
       </c>
       <c r="G57" s="3">
+        <v>35100</v>
+      </c>
+      <c r="H57" s="3">
         <v>8700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>300</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>4100</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>4</v>
       </c>
@@ -1932,63 +2065,72 @@
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E59" s="3">
         <v>1100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2000</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H59" s="3">
-        <v>2500</v>
+      <c r="H59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I59" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J59" s="3">
         <v>1000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1800</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F60" s="3">
+        <v>9600</v>
+      </c>
+      <c r="G60" s="3">
+        <v>17700</v>
+      </c>
+      <c r="H60" s="3">
+        <v>8700</v>
+      </c>
+      <c r="I60" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K60" s="3">
         <v>2100</v>
       </c>
-      <c r="E60" s="3">
-        <v>9600</v>
-      </c>
-      <c r="F60" s="3">
-        <v>17800</v>
-      </c>
-      <c r="G60" s="3">
-        <v>8700</v>
-      </c>
-      <c r="H60" s="3">
-        <v>2800</v>
-      </c>
-      <c r="I60" s="3">
-        <v>1500</v>
-      </c>
-      <c r="J60" s="3">
-        <v>2100</v>
-      </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2002,47 +2144,53 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>2100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1800</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6800</v>
+        <v>22100</v>
       </c>
       <c r="E62" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F62" s="3">
         <v>3200</v>
       </c>
-      <c r="F62" s="3">
-        <v>15900</v>
-      </c>
       <c r="G62" s="3">
-        <v>8400</v>
+        <v>15700</v>
       </c>
       <c r="H62" s="3">
+        <v>8300</v>
+      </c>
+      <c r="I62" s="3">
         <v>300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3100</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2067,9 +2215,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2094,9 +2245,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2121,36 +2275,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>8900</v>
+        <v>26300</v>
       </c>
       <c r="E66" s="3">
-        <v>12900</v>
+        <v>8800</v>
       </c>
       <c r="F66" s="3">
-        <v>33700</v>
+        <v>12700</v>
       </c>
       <c r="G66" s="3">
-        <v>19200</v>
+        <v>33400</v>
       </c>
       <c r="H66" s="3">
+        <v>19000</v>
+      </c>
+      <c r="I66" s="3">
         <v>4900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5200</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2162,8 +2322,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2188,9 +2349,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2215,9 +2379,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2242,9 +2409,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2269,36 +2439,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-190500</v>
+        <v>-201400</v>
       </c>
       <c r="E72" s="3">
-        <v>-164800</v>
+        <v>-188700</v>
       </c>
       <c r="F72" s="3">
-        <v>-293200</v>
+        <v>-163300</v>
       </c>
       <c r="G72" s="3">
-        <v>-94400</v>
+        <v>-290500</v>
       </c>
       <c r="H72" s="3">
-        <v>-66400</v>
+        <v>-93500</v>
       </c>
       <c r="I72" s="3">
-        <v>-51700</v>
+        <v>-65800</v>
       </c>
       <c r="J72" s="3">
+        <v>-51200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-43500</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2323,9 +2499,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2350,9 +2529,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2377,36 +2559,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>72600</v>
+        <v>139900</v>
       </c>
       <c r="E76" s="3">
-        <v>16900</v>
+        <v>71900</v>
       </c>
       <c r="F76" s="3">
-        <v>14400</v>
+        <v>16800</v>
       </c>
       <c r="G76" s="3">
-        <v>10700</v>
+        <v>14300</v>
       </c>
       <c r="H76" s="3">
-        <v>28300</v>
+        <v>10600</v>
       </c>
       <c r="I76" s="3">
-        <v>35500</v>
+        <v>28000</v>
       </c>
       <c r="J76" s="3">
+        <v>35200</v>
+      </c>
+      <c r="K76" s="3">
         <v>43300</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2431,68 +2619,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43190</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42825</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42429</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42063</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-25700</v>
+        <v>-12700</v>
       </c>
       <c r="E81" s="3">
-        <v>-33300</v>
+        <v>-25400</v>
       </c>
       <c r="F81" s="3">
-        <v>-51300</v>
+        <v>-33000</v>
       </c>
       <c r="G81" s="3">
-        <v>-28000</v>
+        <v>-50900</v>
       </c>
       <c r="H81" s="3">
-        <v>-14700</v>
+        <v>-27800</v>
       </c>
       <c r="I81" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="J81" s="3">
         <v>-8200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2200</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2504,35 +2701,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
         <v>1200</v>
-      </c>
-      <c r="E83" s="3">
-        <v>3000</v>
       </c>
       <c r="F83" s="3">
         <v>3000</v>
       </c>
       <c r="G83" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H83" s="3">
         <v>3500</v>
       </c>
-      <c r="H83" s="3">
-        <v>3600</v>
-      </c>
       <c r="I83" s="3">
+        <v>3500</v>
+      </c>
+      <c r="J83" s="3">
         <v>3100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>3000</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2557,9 +2758,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2584,9 +2788,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2611,9 +2818,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2638,9 +2848,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2665,36 +2878,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-18700</v>
+        <v>-22300</v>
       </c>
       <c r="E89" s="3">
-        <v>-29900</v>
+        <v>-18500</v>
       </c>
       <c r="F89" s="3">
-        <v>-32300</v>
+        <v>-29700</v>
       </c>
       <c r="G89" s="3">
-        <v>-16300</v>
+        <v>-32000</v>
       </c>
       <c r="H89" s="3">
-        <v>-9100</v>
+        <v>-16200</v>
       </c>
       <c r="I89" s="3">
-        <v>-8600</v>
+        <v>-9000</v>
       </c>
       <c r="J89" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="K89" s="3">
         <v>-9400</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2706,35 +2925,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-400</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2759,9 +2982,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2786,36 +3012,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-12900</v>
+        <v>-4600</v>
       </c>
       <c r="E94" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="F94" s="3">
+        <v>10500</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I94" s="3">
+        <v>8900</v>
+      </c>
+      <c r="J94" s="3">
         <v>10600</v>
       </c>
-      <c r="F94" s="3">
-        <v>-12300</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-500</v>
-      </c>
-      <c r="H94" s="3">
-        <v>9000</v>
-      </c>
-      <c r="I94" s="3">
-        <v>10700</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>9900</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2827,8 +3059,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2853,9 +3086,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2880,9 +3116,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2907,9 +3146,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2934,88 +3176,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>77600</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>17200</v>
+        <v>76900</v>
       </c>
       <c r="F100" s="3">
-        <v>59600</v>
+        <v>17000</v>
       </c>
       <c r="G100" s="3">
-        <v>14900</v>
+        <v>59000</v>
       </c>
       <c r="H100" s="3">
-        <v>9000</v>
+        <v>14700</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>8900</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>200</v>
+      </c>
+      <c r="E101" s="3">
         <v>1800</v>
-      </c>
-      <c r="E101" s="3">
-        <v>-1300</v>
       </c>
       <c r="F101" s="3">
         <v>-1300</v>
       </c>
       <c r="G101" s="3">
-        <v>0</v>
+        <v>-1300</v>
       </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>200</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>47900</v>
+        <v>-26600</v>
       </c>
       <c r="E102" s="3">
+        <v>47400</v>
+      </c>
+      <c r="F102" s="3">
         <v>-3400</v>
       </c>
-      <c r="F102" s="3">
-        <v>13600</v>
-      </c>
       <c r="G102" s="3">
+        <v>13500</v>
+      </c>
+      <c r="H102" s="3">
         <v>-2000</v>
       </c>
-      <c r="H102" s="3">
-        <v>8800</v>
-      </c>
       <c r="I102" s="3">
+        <v>8700</v>
+      </c>
+      <c r="J102" s="3">
         <v>2200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>800</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/ACST_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ACST_YR_FIN.xlsx
@@ -733,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="J8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K8" s="3">
         <v>400</v>
@@ -819,25 +819,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="E12" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="F12" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="G12" s="3">
-        <v>51600</v>
+        <v>53200</v>
       </c>
       <c r="H12" s="3">
-        <v>16800</v>
+        <v>17300</v>
       </c>
       <c r="I12" s="3">
+        <v>6500</v>
+      </c>
+      <c r="J12" s="3">
         <v>6400</v>
-      </c>
-      <c r="J12" s="3">
-        <v>6200</v>
       </c>
       <c r="K12" s="3">
         <v>8500</v>
@@ -882,7 +882,7 @@
         <v>300</v>
       </c>
       <c r="E14" s="3">
-        <v>7400</v>
+        <v>7600</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -897,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>1200</v>
       </c>
       <c r="F15" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="G15" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="H15" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="I15" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="J15" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="K15" s="3">
         <v>3000</v>
@@ -950,25 +950,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>20100</v>
+        <v>20800</v>
       </c>
       <c r="E17" s="3">
-        <v>21500</v>
+        <v>22100</v>
       </c>
       <c r="F17" s="3">
-        <v>31600</v>
+        <v>32500</v>
       </c>
       <c r="G17" s="3">
-        <v>44500</v>
+        <v>45800</v>
       </c>
       <c r="H17" s="3">
-        <v>25500</v>
+        <v>26200</v>
       </c>
       <c r="I17" s="3">
-        <v>14500</v>
+        <v>14900</v>
       </c>
       <c r="J17" s="3">
-        <v>12400</v>
+        <v>12800</v>
       </c>
       <c r="K17" s="3">
         <v>16200</v>
@@ -983,7 +983,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-21200</v>
+        <v>-21900</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>4</v>
@@ -998,7 +998,7 @@
         <v>4</v>
       </c>
       <c r="J18" s="3">
-        <v>-12400</v>
+        <v>-12800</v>
       </c>
       <c r="K18" s="3">
         <v>-15800</v>
@@ -1027,7 +1027,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>-4200</v>
+        <v>-4300</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>4</v>
@@ -1042,7 +1042,7 @@
         <v>4</v>
       </c>
       <c r="J20" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="K20" s="3">
         <v>13700</v>
@@ -1054,10 +1054,10 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-13500</v>
+        <v>-13900</v>
       </c>
       <c r="E21" s="3">
-        <v>-24200</v>
+        <v>-25000</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>4</v>
@@ -1072,7 +1072,7 @@
         <v>4</v>
       </c>
       <c r="J21" s="3">
-        <v>-5100</v>
+        <v>-5200</v>
       </c>
       <c r="K21" s="3">
         <v>900</v>
@@ -1093,7 +1093,7 @@
         <v>300</v>
       </c>
       <c r="G22" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="H22" s="3">
         <v>500</v>
@@ -1114,25 +1114,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-13500</v>
+        <v>-13900</v>
       </c>
       <c r="E23" s="3">
-        <v>-25400</v>
+        <v>-26200</v>
       </c>
       <c r="F23" s="3">
-        <v>-33000</v>
+        <v>-34000</v>
       </c>
       <c r="G23" s="3">
-        <v>-50900</v>
+        <v>-52400</v>
       </c>
       <c r="H23" s="3">
-        <v>-27800</v>
+        <v>-28600</v>
       </c>
       <c r="I23" s="3">
-        <v>-14700</v>
+        <v>-15200</v>
       </c>
       <c r="J23" s="3">
-        <v>-8200</v>
+        <v>-8400</v>
       </c>
       <c r="K23" s="3">
         <v>-2200</v>
@@ -1144,7 +1144,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>4</v>
@@ -1204,25 +1204,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-12700</v>
+        <v>-13100</v>
       </c>
       <c r="E26" s="3">
-        <v>-25400</v>
+        <v>-26200</v>
       </c>
       <c r="F26" s="3">
-        <v>-33000</v>
+        <v>-34000</v>
       </c>
       <c r="G26" s="3">
-        <v>-50900</v>
+        <v>-52400</v>
       </c>
       <c r="H26" s="3">
-        <v>-27800</v>
+        <v>-28600</v>
       </c>
       <c r="I26" s="3">
-        <v>-14500</v>
+        <v>-15000</v>
       </c>
       <c r="J26" s="3">
-        <v>-8200</v>
+        <v>-8400</v>
       </c>
       <c r="K26" s="3">
         <v>-2200</v>
@@ -1234,25 +1234,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-12700</v>
+        <v>-13100</v>
       </c>
       <c r="E27" s="3">
-        <v>-25400</v>
+        <v>-26200</v>
       </c>
       <c r="F27" s="3">
-        <v>-33000</v>
+        <v>-34000</v>
       </c>
       <c r="G27" s="3">
-        <v>-50900</v>
+        <v>-52400</v>
       </c>
       <c r="H27" s="3">
-        <v>-27800</v>
+        <v>-28600</v>
       </c>
       <c r="I27" s="3">
-        <v>-14500</v>
+        <v>-15000</v>
       </c>
       <c r="J27" s="3">
-        <v>-8200</v>
+        <v>-8400</v>
       </c>
       <c r="K27" s="3">
         <v>-2200</v>
@@ -1387,7 +1387,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>4</v>
@@ -1402,7 +1402,7 @@
         <v>4</v>
       </c>
       <c r="J32" s="3">
-        <v>-4200</v>
+        <v>-4300</v>
       </c>
       <c r="K32" s="3">
         <v>-13700</v>
@@ -1414,25 +1414,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-12700</v>
+        <v>-13100</v>
       </c>
       <c r="E33" s="3">
-        <v>-25400</v>
+        <v>-26200</v>
       </c>
       <c r="F33" s="3">
-        <v>-33000</v>
+        <v>-34000</v>
       </c>
       <c r="G33" s="3">
-        <v>-50900</v>
+        <v>-52400</v>
       </c>
       <c r="H33" s="3">
-        <v>-27800</v>
+        <v>-28600</v>
       </c>
       <c r="I33" s="3">
-        <v>-14500</v>
+        <v>-15000</v>
       </c>
       <c r="J33" s="3">
-        <v>-8200</v>
+        <v>-8400</v>
       </c>
       <c r="K33" s="3">
         <v>-2200</v>
@@ -1474,25 +1474,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-12700</v>
+        <v>-13100</v>
       </c>
       <c r="E35" s="3">
-        <v>-25400</v>
+        <v>-26200</v>
       </c>
       <c r="F35" s="3">
-        <v>-33000</v>
+        <v>-34000</v>
       </c>
       <c r="G35" s="3">
-        <v>-50900</v>
+        <v>-52400</v>
       </c>
       <c r="H35" s="3">
-        <v>-27800</v>
+        <v>-28600</v>
       </c>
       <c r="I35" s="3">
-        <v>-14500</v>
+        <v>-15000</v>
       </c>
       <c r="J35" s="3">
-        <v>-8200</v>
+        <v>-8400</v>
       </c>
       <c r="K35" s="3">
         <v>-2200</v>
@@ -1567,25 +1567,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>39200</v>
+        <v>40400</v>
       </c>
       <c r="E41" s="3">
-        <v>65800</v>
+        <v>67800</v>
       </c>
       <c r="F41" s="3">
-        <v>18400</v>
+        <v>19000</v>
       </c>
       <c r="G41" s="3">
-        <v>21800</v>
+        <v>22500</v>
       </c>
       <c r="H41" s="3">
-        <v>10600</v>
+        <v>11000</v>
       </c>
       <c r="I41" s="3">
-        <v>12600</v>
+        <v>13000</v>
       </c>
       <c r="J41" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="K41" s="3">
         <v>1700</v>
@@ -1597,16 +1597,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>17200</v>
+        <v>17700</v>
       </c>
       <c r="E42" s="3">
-        <v>12700</v>
+        <v>13000</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>11500</v>
+        <v>11800</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>4</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="3">
-        <v>9600</v>
+        <v>9900</v>
       </c>
       <c r="K42" s="3">
         <v>22300</v>
@@ -1633,10 +1633,10 @@
         <v>700</v>
       </c>
       <c r="F43" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="G43" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="H43" s="3">
         <v>1000</v>
@@ -1687,13 +1687,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="E45" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="F45" s="3">
-        <v>5000</v>
+        <v>5200</v>
       </c>
       <c r="G45" s="3">
         <v>1400</v>
@@ -1717,25 +1717,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>58800</v>
+        <v>60600</v>
       </c>
       <c r="E46" s="3">
-        <v>80600</v>
+        <v>83100</v>
       </c>
       <c r="F46" s="3">
-        <v>23900</v>
+        <v>24600</v>
       </c>
       <c r="G46" s="3">
-        <v>36100</v>
+        <v>37200</v>
       </c>
       <c r="H46" s="3">
-        <v>12300</v>
+        <v>12600</v>
       </c>
       <c r="I46" s="3">
-        <v>13200</v>
+        <v>13600</v>
       </c>
       <c r="J46" s="3">
-        <v>14600</v>
+        <v>15100</v>
       </c>
       <c r="K46" s="3">
         <v>25600</v>
@@ -1786,13 +1786,13 @@
         <v>2700</v>
       </c>
       <c r="G48" s="3">
-        <v>6400</v>
+        <v>6600</v>
       </c>
       <c r="H48" s="3">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="I48" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="J48" s="3">
         <v>400</v>
@@ -1807,25 +1807,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>107000</v>
+        <v>110200</v>
       </c>
       <c r="E49" s="3">
         <v>0</v>
       </c>
       <c r="F49" s="3">
-        <v>11000</v>
+        <v>11300</v>
       </c>
       <c r="G49" s="3">
-        <v>18300</v>
+        <v>18800</v>
       </c>
       <c r="H49" s="3">
-        <v>13000</v>
+        <v>13400</v>
       </c>
       <c r="I49" s="3">
-        <v>16000</v>
+        <v>16500</v>
       </c>
       <c r="J49" s="3">
-        <v>19300</v>
+        <v>19900</v>
       </c>
       <c r="K49" s="3">
         <v>22800</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="J52" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>4</v>
@@ -1957,25 +1957,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>166200</v>
+        <v>171300</v>
       </c>
       <c r="E54" s="3">
-        <v>80700</v>
+        <v>83200</v>
       </c>
       <c r="F54" s="3">
-        <v>29500</v>
+        <v>30400</v>
       </c>
       <c r="G54" s="3">
-        <v>47700</v>
+        <v>49100</v>
       </c>
       <c r="H54" s="3">
-        <v>29700</v>
+        <v>30600</v>
       </c>
       <c r="I54" s="3">
-        <v>32900</v>
+        <v>33900</v>
       </c>
       <c r="J54" s="3">
-        <v>36900</v>
+        <v>38000</v>
       </c>
       <c r="K54" s="3">
         <v>48500</v>
@@ -2018,16 +2018,16 @@
         <v>2600</v>
       </c>
       <c r="E57" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="F57" s="3">
-        <v>7700</v>
+        <v>7900</v>
       </c>
       <c r="G57" s="3">
-        <v>35100</v>
+        <v>36200</v>
       </c>
       <c r="H57" s="3">
-        <v>8700</v>
+        <v>8900</v>
       </c>
       <c r="I57" s="3">
         <v>300</v>
@@ -2054,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>4</v>
@@ -2084,13 +2084,13 @@
         <v>1900</v>
       </c>
       <c r="G59" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I59" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="J59" s="3">
         <v>1000</v>
@@ -2105,19 +2105,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="E60" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="F60" s="3">
-        <v>9600</v>
+        <v>9800</v>
       </c>
       <c r="G60" s="3">
-        <v>17700</v>
+        <v>18200</v>
       </c>
       <c r="H60" s="3">
-        <v>8700</v>
+        <v>8900</v>
       </c>
       <c r="I60" s="3">
         <v>2800</v>
@@ -2150,7 +2150,7 @@
         <v>2100</v>
       </c>
       <c r="I61" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2165,19 +2165,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>22100</v>
+        <v>22800</v>
       </c>
       <c r="E62" s="3">
-        <v>6700</v>
+        <v>7000</v>
       </c>
       <c r="F62" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="G62" s="3">
-        <v>15700</v>
+        <v>16200</v>
       </c>
       <c r="H62" s="3">
-        <v>8300</v>
+        <v>8600</v>
       </c>
       <c r="I62" s="3">
         <v>300</v>
@@ -2285,22 +2285,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>26300</v>
+        <v>27100</v>
       </c>
       <c r="E66" s="3">
-        <v>8800</v>
+        <v>9100</v>
       </c>
       <c r="F66" s="3">
-        <v>12700</v>
+        <v>13100</v>
       </c>
       <c r="G66" s="3">
-        <v>33400</v>
+        <v>34400</v>
       </c>
       <c r="H66" s="3">
-        <v>19000</v>
+        <v>19600</v>
       </c>
       <c r="I66" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="J66" s="3">
         <v>1700</v>
@@ -2449,25 +2449,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-201400</v>
+        <v>-207500</v>
       </c>
       <c r="E72" s="3">
-        <v>-188700</v>
+        <v>-194500</v>
       </c>
       <c r="F72" s="3">
-        <v>-163300</v>
+        <v>-168300</v>
       </c>
       <c r="G72" s="3">
-        <v>-290500</v>
+        <v>-299400</v>
       </c>
       <c r="H72" s="3">
-        <v>-93500</v>
+        <v>-96400</v>
       </c>
       <c r="I72" s="3">
-        <v>-65800</v>
+        <v>-67800</v>
       </c>
       <c r="J72" s="3">
-        <v>-51200</v>
+        <v>-52800</v>
       </c>
       <c r="K72" s="3">
         <v>-43500</v>
@@ -2569,25 +2569,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>139900</v>
+        <v>144200</v>
       </c>
       <c r="E76" s="3">
-        <v>71900</v>
+        <v>74100</v>
       </c>
       <c r="F76" s="3">
-        <v>16800</v>
+        <v>17300</v>
       </c>
       <c r="G76" s="3">
-        <v>14300</v>
+        <v>14700</v>
       </c>
       <c r="H76" s="3">
-        <v>10600</v>
+        <v>11000</v>
       </c>
       <c r="I76" s="3">
-        <v>28000</v>
+        <v>28900</v>
       </c>
       <c r="J76" s="3">
-        <v>35200</v>
+        <v>36300</v>
       </c>
       <c r="K76" s="3">
         <v>43300</v>
@@ -2664,25 +2664,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-12700</v>
+        <v>-13100</v>
       </c>
       <c r="E81" s="3">
-        <v>-25400</v>
+        <v>-26200</v>
       </c>
       <c r="F81" s="3">
-        <v>-33000</v>
+        <v>-34000</v>
       </c>
       <c r="G81" s="3">
-        <v>-50900</v>
+        <v>-52400</v>
       </c>
       <c r="H81" s="3">
-        <v>-27800</v>
+        <v>-28600</v>
       </c>
       <c r="I81" s="3">
-        <v>-14500</v>
+        <v>-15000</v>
       </c>
       <c r="J81" s="3">
-        <v>-8200</v>
+        <v>-8400</v>
       </c>
       <c r="K81" s="3">
         <v>-2200</v>
@@ -2714,19 +2714,19 @@
         <v>1200</v>
       </c>
       <c r="F83" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="G83" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="H83" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="I83" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="J83" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="K83" s="3">
         <v>3000</v>
@@ -2888,25 +2888,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-22300</v>
+        <v>-23000</v>
       </c>
       <c r="E89" s="3">
-        <v>-18500</v>
+        <v>-19100</v>
       </c>
       <c r="F89" s="3">
-        <v>-29700</v>
+        <v>-30600</v>
       </c>
       <c r="G89" s="3">
-        <v>-32000</v>
+        <v>-33000</v>
       </c>
       <c r="H89" s="3">
-        <v>-16200</v>
+        <v>-16700</v>
       </c>
       <c r="I89" s="3">
-        <v>-9000</v>
+        <v>-9300</v>
       </c>
       <c r="J89" s="3">
-        <v>-8500</v>
+        <v>-8800</v>
       </c>
       <c r="K89" s="3">
         <v>-9400</v>
@@ -2947,7 +2947,7 @@
         <v>-600</v>
       </c>
       <c r="I91" s="3">
-        <v>-3300</v>
+        <v>-3400</v>
       </c>
       <c r="J91" s="3">
         <v>-400</v>
@@ -3022,25 +3022,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4600</v>
+        <v>-4700</v>
       </c>
       <c r="E94" s="3">
-        <v>-12700</v>
+        <v>-13100</v>
       </c>
       <c r="F94" s="3">
-        <v>10500</v>
+        <v>10800</v>
       </c>
       <c r="G94" s="3">
-        <v>-12200</v>
+        <v>-12600</v>
       </c>
       <c r="H94" s="3">
         <v>-500</v>
       </c>
       <c r="I94" s="3">
-        <v>8900</v>
+        <v>9200</v>
       </c>
       <c r="J94" s="3">
-        <v>10600</v>
+        <v>11000</v>
       </c>
       <c r="K94" s="3">
         <v>9900</v>
@@ -3189,19 +3189,19 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>76900</v>
+        <v>79200</v>
       </c>
       <c r="F100" s="3">
-        <v>17000</v>
+        <v>17600</v>
       </c>
       <c r="G100" s="3">
-        <v>59000</v>
+        <v>60800</v>
       </c>
       <c r="H100" s="3">
-        <v>14700</v>
+        <v>15200</v>
       </c>
       <c r="I100" s="3">
-        <v>8900</v>
+        <v>9100</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
@@ -3246,25 +3246,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-26600</v>
+        <v>-27400</v>
       </c>
       <c r="E102" s="3">
-        <v>47400</v>
+        <v>48900</v>
       </c>
       <c r="F102" s="3">
-        <v>-3400</v>
+        <v>-3500</v>
       </c>
       <c r="G102" s="3">
-        <v>13500</v>
+        <v>13900</v>
       </c>
       <c r="H102" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="I102" s="3">
-        <v>8700</v>
+        <v>9000</v>
       </c>
       <c r="J102" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="K102" s="3">
         <v>800</v>

--- a/AAII_Financials/Yearly/ACST_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ACST_YR_FIN.xlsx
@@ -819,25 +819,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="E12" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="F12" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="G12" s="3">
-        <v>53200</v>
+        <v>55200</v>
       </c>
       <c r="H12" s="3">
-        <v>17300</v>
+        <v>18000</v>
       </c>
       <c r="I12" s="3">
-        <v>6500</v>
+        <v>6800</v>
       </c>
       <c r="J12" s="3">
-        <v>6400</v>
+        <v>6700</v>
       </c>
       <c r="K12" s="3">
         <v>8500</v>
@@ -882,7 +882,7 @@
         <v>300</v>
       </c>
       <c r="E14" s="3">
-        <v>7600</v>
+        <v>7900</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -912,22 +912,22 @@
         <v>0</v>
       </c>
       <c r="E15" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="F15" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="G15" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="H15" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="I15" s="3">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="J15" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="K15" s="3">
         <v>3000</v>
@@ -950,25 +950,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>20800</v>
+        <v>21600</v>
       </c>
       <c r="E17" s="3">
-        <v>22100</v>
+        <v>23000</v>
       </c>
       <c r="F17" s="3">
-        <v>32500</v>
+        <v>33800</v>
       </c>
       <c r="G17" s="3">
-        <v>45800</v>
+        <v>47600</v>
       </c>
       <c r="H17" s="3">
-        <v>26200</v>
+        <v>27200</v>
       </c>
       <c r="I17" s="3">
-        <v>14900</v>
+        <v>15500</v>
       </c>
       <c r="J17" s="3">
-        <v>12800</v>
+        <v>13300</v>
       </c>
       <c r="K17" s="3">
         <v>16200</v>
@@ -983,7 +983,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-21900</v>
+        <v>-22700</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>4</v>
@@ -998,7 +998,7 @@
         <v>4</v>
       </c>
       <c r="J18" s="3">
-        <v>-12800</v>
+        <v>-13200</v>
       </c>
       <c r="K18" s="3">
         <v>-15800</v>
@@ -1027,7 +1027,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>-4300</v>
+        <v>-4500</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>4</v>
@@ -1042,7 +1042,7 @@
         <v>4</v>
       </c>
       <c r="J20" s="3">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="K20" s="3">
         <v>13700</v>
@@ -1054,10 +1054,10 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-13900</v>
+        <v>-14500</v>
       </c>
       <c r="E21" s="3">
-        <v>-25000</v>
+        <v>-25900</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>4</v>
@@ -1072,7 +1072,7 @@
         <v>4</v>
       </c>
       <c r="J21" s="3">
-        <v>-5200</v>
+        <v>-5400</v>
       </c>
       <c r="K21" s="3">
         <v>900</v>
@@ -1114,25 +1114,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-13900</v>
+        <v>-14500</v>
       </c>
       <c r="E23" s="3">
-        <v>-26200</v>
+        <v>-27200</v>
       </c>
       <c r="F23" s="3">
-        <v>-34000</v>
+        <v>-35300</v>
       </c>
       <c r="G23" s="3">
-        <v>-52400</v>
+        <v>-54400</v>
       </c>
       <c r="H23" s="3">
-        <v>-28600</v>
+        <v>-29700</v>
       </c>
       <c r="I23" s="3">
-        <v>-15200</v>
+        <v>-15700</v>
       </c>
       <c r="J23" s="3">
-        <v>-8400</v>
+        <v>-8700</v>
       </c>
       <c r="K23" s="3">
         <v>-2200</v>
@@ -1204,25 +1204,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-13100</v>
+        <v>-13600</v>
       </c>
       <c r="E26" s="3">
-        <v>-26200</v>
+        <v>-27200</v>
       </c>
       <c r="F26" s="3">
-        <v>-34000</v>
+        <v>-35300</v>
       </c>
       <c r="G26" s="3">
-        <v>-52400</v>
+        <v>-54400</v>
       </c>
       <c r="H26" s="3">
-        <v>-28600</v>
+        <v>-29700</v>
       </c>
       <c r="I26" s="3">
-        <v>-15000</v>
+        <v>-15600</v>
       </c>
       <c r="J26" s="3">
-        <v>-8400</v>
+        <v>-8700</v>
       </c>
       <c r="K26" s="3">
         <v>-2200</v>
@@ -1234,25 +1234,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-13100</v>
+        <v>-13600</v>
       </c>
       <c r="E27" s="3">
-        <v>-26200</v>
+        <v>-27200</v>
       </c>
       <c r="F27" s="3">
-        <v>-34000</v>
+        <v>-35300</v>
       </c>
       <c r="G27" s="3">
-        <v>-52400</v>
+        <v>-54400</v>
       </c>
       <c r="H27" s="3">
-        <v>-28600</v>
+        <v>-29700</v>
       </c>
       <c r="I27" s="3">
-        <v>-15000</v>
+        <v>-15600</v>
       </c>
       <c r="J27" s="3">
-        <v>-8400</v>
+        <v>-8700</v>
       </c>
       <c r="K27" s="3">
         <v>-2200</v>
@@ -1387,7 +1387,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>4</v>
@@ -1402,7 +1402,7 @@
         <v>4</v>
       </c>
       <c r="J32" s="3">
-        <v>-4300</v>
+        <v>-4500</v>
       </c>
       <c r="K32" s="3">
         <v>-13700</v>
@@ -1414,25 +1414,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-13100</v>
+        <v>-13600</v>
       </c>
       <c r="E33" s="3">
-        <v>-26200</v>
+        <v>-27200</v>
       </c>
       <c r="F33" s="3">
-        <v>-34000</v>
+        <v>-35300</v>
       </c>
       <c r="G33" s="3">
-        <v>-52400</v>
+        <v>-54400</v>
       </c>
       <c r="H33" s="3">
-        <v>-28600</v>
+        <v>-29700</v>
       </c>
       <c r="I33" s="3">
-        <v>-15000</v>
+        <v>-15600</v>
       </c>
       <c r="J33" s="3">
-        <v>-8400</v>
+        <v>-8700</v>
       </c>
       <c r="K33" s="3">
         <v>-2200</v>
@@ -1474,25 +1474,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-13100</v>
+        <v>-13600</v>
       </c>
       <c r="E35" s="3">
-        <v>-26200</v>
+        <v>-27200</v>
       </c>
       <c r="F35" s="3">
-        <v>-34000</v>
+        <v>-35300</v>
       </c>
       <c r="G35" s="3">
-        <v>-52400</v>
+        <v>-54400</v>
       </c>
       <c r="H35" s="3">
-        <v>-28600</v>
+        <v>-29700</v>
       </c>
       <c r="I35" s="3">
-        <v>-15000</v>
+        <v>-15600</v>
       </c>
       <c r="J35" s="3">
-        <v>-8400</v>
+        <v>-8700</v>
       </c>
       <c r="K35" s="3">
         <v>-2200</v>
@@ -1567,25 +1567,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>40400</v>
+        <v>41900</v>
       </c>
       <c r="E41" s="3">
-        <v>67800</v>
+        <v>70400</v>
       </c>
       <c r="F41" s="3">
-        <v>19000</v>
+        <v>19700</v>
       </c>
       <c r="G41" s="3">
-        <v>22500</v>
+        <v>23300</v>
       </c>
       <c r="H41" s="3">
-        <v>11000</v>
+        <v>11400</v>
       </c>
       <c r="I41" s="3">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="J41" s="3">
-        <v>4000</v>
+        <v>4200</v>
       </c>
       <c r="K41" s="3">
         <v>1700</v>
@@ -1597,16 +1597,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>17700</v>
+        <v>18400</v>
       </c>
       <c r="E42" s="3">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>11800</v>
+        <v>12300</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>4</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="3">
-        <v>9900</v>
+        <v>10300</v>
       </c>
       <c r="K42" s="3">
         <v>22300</v>
@@ -1627,7 +1627,7 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E43" s="3">
         <v>700</v>
@@ -1645,7 +1645,7 @@
         <v>300</v>
       </c>
       <c r="J43" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K43" s="3">
         <v>1100</v>
@@ -1693,10 +1693,10 @@
         <v>1500</v>
       </c>
       <c r="F45" s="3">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="G45" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="H45" s="3">
         <v>700</v>
@@ -1717,25 +1717,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>60600</v>
+        <v>63000</v>
       </c>
       <c r="E46" s="3">
-        <v>83100</v>
+        <v>86200</v>
       </c>
       <c r="F46" s="3">
-        <v>24600</v>
+        <v>25500</v>
       </c>
       <c r="G46" s="3">
-        <v>37200</v>
+        <v>38700</v>
       </c>
       <c r="H46" s="3">
-        <v>12600</v>
+        <v>13100</v>
       </c>
       <c r="I46" s="3">
-        <v>13600</v>
+        <v>14100</v>
       </c>
       <c r="J46" s="3">
-        <v>15100</v>
+        <v>15700</v>
       </c>
       <c r="K46" s="3">
         <v>25600</v>
@@ -1783,16 +1783,16 @@
         <v>100</v>
       </c>
       <c r="F48" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="G48" s="3">
-        <v>6600</v>
+        <v>6800</v>
       </c>
       <c r="H48" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="I48" s="3">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="J48" s="3">
         <v>400</v>
@@ -1807,25 +1807,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>110200</v>
+        <v>114500</v>
       </c>
       <c r="E49" s="3">
         <v>0</v>
       </c>
       <c r="F49" s="3">
-        <v>11300</v>
+        <v>11700</v>
       </c>
       <c r="G49" s="3">
-        <v>18800</v>
+        <v>19500</v>
       </c>
       <c r="H49" s="3">
-        <v>13400</v>
+        <v>13900</v>
       </c>
       <c r="I49" s="3">
-        <v>16500</v>
+        <v>17100</v>
       </c>
       <c r="J49" s="3">
-        <v>19900</v>
+        <v>20600</v>
       </c>
       <c r="K49" s="3">
         <v>22800</v>
@@ -1903,19 +1903,19 @@
         <v>4</v>
       </c>
       <c r="F52" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G52" s="3">
         <v>1300</v>
       </c>
       <c r="H52" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
       </c>
       <c r="J52" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>4</v>
@@ -1957,25 +1957,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>171300</v>
+        <v>177800</v>
       </c>
       <c r="E54" s="3">
-        <v>83200</v>
+        <v>86400</v>
       </c>
       <c r="F54" s="3">
-        <v>30400</v>
+        <v>31600</v>
       </c>
       <c r="G54" s="3">
-        <v>49100</v>
+        <v>51000</v>
       </c>
       <c r="H54" s="3">
-        <v>30600</v>
+        <v>31700</v>
       </c>
       <c r="I54" s="3">
-        <v>33900</v>
+        <v>35200</v>
       </c>
       <c r="J54" s="3">
-        <v>38000</v>
+        <v>39400</v>
       </c>
       <c r="K54" s="3">
         <v>48500</v>
@@ -2015,22 +2015,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="E57" s="3">
         <v>1000</v>
       </c>
       <c r="F57" s="3">
-        <v>7900</v>
+        <v>8200</v>
       </c>
       <c r="G57" s="3">
-        <v>36200</v>
+        <v>37600</v>
       </c>
       <c r="H57" s="3">
-        <v>8900</v>
+        <v>9300</v>
       </c>
       <c r="I57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J57" s="3">
         <v>500</v>
@@ -2054,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>4</v>
@@ -2075,25 +2075,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="E59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G59" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I59" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J59" s="3">
         <v>1100</v>
-      </c>
-      <c r="F59" s="3">
-        <v>1900</v>
-      </c>
-      <c r="G59" s="3">
-        <v>2100</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I59" s="3">
-        <v>2500</v>
-      </c>
-      <c r="J59" s="3">
-        <v>1000</v>
       </c>
       <c r="K59" s="3">
         <v>1800</v>
@@ -2105,25 +2105,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="E60" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="F60" s="3">
-        <v>9800</v>
+        <v>10200</v>
       </c>
       <c r="G60" s="3">
-        <v>18200</v>
+        <v>18900</v>
       </c>
       <c r="H60" s="3">
-        <v>8900</v>
+        <v>9300</v>
       </c>
       <c r="I60" s="3">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="J60" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="K60" s="3">
         <v>2100</v>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="I61" s="3">
         <v>1900</v>
@@ -2165,19 +2165,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>22800</v>
+        <v>23600</v>
       </c>
       <c r="E62" s="3">
-        <v>7000</v>
+        <v>7200</v>
       </c>
       <c r="F62" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="G62" s="3">
-        <v>16200</v>
+        <v>16800</v>
       </c>
       <c r="H62" s="3">
-        <v>8600</v>
+        <v>8900</v>
       </c>
       <c r="I62" s="3">
         <v>300</v>
@@ -2285,25 +2285,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>27100</v>
+        <v>28100</v>
       </c>
       <c r="E66" s="3">
-        <v>9100</v>
+        <v>9400</v>
       </c>
       <c r="F66" s="3">
-        <v>13100</v>
+        <v>13600</v>
       </c>
       <c r="G66" s="3">
-        <v>34400</v>
+        <v>35700</v>
       </c>
       <c r="H66" s="3">
-        <v>19600</v>
+        <v>20400</v>
       </c>
       <c r="I66" s="3">
-        <v>5000</v>
+        <v>5200</v>
       </c>
       <c r="J66" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="K66" s="3">
         <v>5200</v>
@@ -2449,25 +2449,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-207500</v>
+        <v>-215500</v>
       </c>
       <c r="E72" s="3">
-        <v>-194500</v>
+        <v>-201900</v>
       </c>
       <c r="F72" s="3">
-        <v>-168300</v>
+        <v>-174700</v>
       </c>
       <c r="G72" s="3">
-        <v>-299400</v>
+        <v>-310800</v>
       </c>
       <c r="H72" s="3">
-        <v>-96400</v>
+        <v>-100100</v>
       </c>
       <c r="I72" s="3">
-        <v>-67800</v>
+        <v>-70300</v>
       </c>
       <c r="J72" s="3">
-        <v>-52800</v>
+        <v>-54800</v>
       </c>
       <c r="K72" s="3">
         <v>-43500</v>
@@ -2569,25 +2569,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>144200</v>
+        <v>149700</v>
       </c>
       <c r="E76" s="3">
-        <v>74100</v>
+        <v>77000</v>
       </c>
       <c r="F76" s="3">
-        <v>17300</v>
+        <v>18000</v>
       </c>
       <c r="G76" s="3">
-        <v>14700</v>
+        <v>15300</v>
       </c>
       <c r="H76" s="3">
-        <v>11000</v>
+        <v>11400</v>
       </c>
       <c r="I76" s="3">
-        <v>28900</v>
+        <v>30000</v>
       </c>
       <c r="J76" s="3">
-        <v>36300</v>
+        <v>37600</v>
       </c>
       <c r="K76" s="3">
         <v>43300</v>
@@ -2664,25 +2664,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-13100</v>
+        <v>-13600</v>
       </c>
       <c r="E81" s="3">
-        <v>-26200</v>
+        <v>-27200</v>
       </c>
       <c r="F81" s="3">
-        <v>-34000</v>
+        <v>-35300</v>
       </c>
       <c r="G81" s="3">
-        <v>-52400</v>
+        <v>-54400</v>
       </c>
       <c r="H81" s="3">
-        <v>-28600</v>
+        <v>-29700</v>
       </c>
       <c r="I81" s="3">
-        <v>-15000</v>
+        <v>-15600</v>
       </c>
       <c r="J81" s="3">
-        <v>-8400</v>
+        <v>-8700</v>
       </c>
       <c r="K81" s="3">
         <v>-2200</v>
@@ -2711,22 +2711,22 @@
         <v>0</v>
       </c>
       <c r="E83" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="F83" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="G83" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="H83" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="I83" s="3">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="J83" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="K83" s="3">
         <v>3000</v>
@@ -2888,25 +2888,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-23000</v>
+        <v>-23800</v>
       </c>
       <c r="E89" s="3">
-        <v>-19100</v>
+        <v>-19800</v>
       </c>
       <c r="F89" s="3">
-        <v>-30600</v>
+        <v>-31700</v>
       </c>
       <c r="G89" s="3">
-        <v>-33000</v>
+        <v>-34300</v>
       </c>
       <c r="H89" s="3">
-        <v>-16700</v>
+        <v>-17300</v>
       </c>
       <c r="I89" s="3">
-        <v>-9300</v>
+        <v>-9600</v>
       </c>
       <c r="J89" s="3">
-        <v>-8800</v>
+        <v>-9100</v>
       </c>
       <c r="K89" s="3">
         <v>-9400</v>
@@ -2947,7 +2947,7 @@
         <v>-600</v>
       </c>
       <c r="I91" s="3">
-        <v>-3400</v>
+        <v>-3500</v>
       </c>
       <c r="J91" s="3">
         <v>-400</v>
@@ -3022,25 +3022,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4700</v>
+        <v>-4900</v>
       </c>
       <c r="E94" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="F94" s="3">
+        <v>11300</v>
+      </c>
+      <c r="G94" s="3">
         <v>-13100</v>
       </c>
-      <c r="F94" s="3">
-        <v>10800</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-12600</v>
-      </c>
       <c r="H94" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="I94" s="3">
-        <v>9200</v>
+        <v>9500</v>
       </c>
       <c r="J94" s="3">
-        <v>11000</v>
+        <v>11400</v>
       </c>
       <c r="K94" s="3">
         <v>9900</v>
@@ -3189,19 +3189,19 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>79200</v>
+        <v>82300</v>
       </c>
       <c r="F100" s="3">
-        <v>17600</v>
+        <v>18200</v>
       </c>
       <c r="G100" s="3">
-        <v>60800</v>
+        <v>63200</v>
       </c>
       <c r="H100" s="3">
-        <v>15200</v>
+        <v>15800</v>
       </c>
       <c r="I100" s="3">
-        <v>9100</v>
+        <v>9500</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
@@ -3219,13 +3219,13 @@
         <v>200</v>
       </c>
       <c r="E101" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="F101" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="G101" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
@@ -3246,25 +3246,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-27400</v>
+        <v>-28500</v>
       </c>
       <c r="E102" s="3">
-        <v>48900</v>
+        <v>50700</v>
       </c>
       <c r="F102" s="3">
-        <v>-3500</v>
+        <v>-3600</v>
       </c>
       <c r="G102" s="3">
-        <v>13900</v>
+        <v>14400</v>
       </c>
       <c r="H102" s="3">
         <v>-2100</v>
       </c>
       <c r="I102" s="3">
-        <v>9000</v>
+        <v>9300</v>
       </c>
       <c r="J102" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="K102" s="3">
         <v>800</v>

--- a/AAII_Financials/Yearly/ACST_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ACST_YR_FIN.xlsx
@@ -718,7 +718,7 @@
         <v>4</v>
       </c>
       <c r="E8" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>4</v>
@@ -733,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="J8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K8" s="3">
         <v>400</v>
@@ -778,7 +778,7 @@
         <v>4</v>
       </c>
       <c r="E10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>4</v>
@@ -793,7 +793,7 @@
         <v>4</v>
       </c>
       <c r="J10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
@@ -819,25 +819,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>3400</v>
+        <v>2500</v>
       </c>
       <c r="E12" s="3">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="F12" s="3">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="G12" s="3">
-        <v>55200</v>
+        <v>39900</v>
       </c>
       <c r="H12" s="3">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="I12" s="3">
-        <v>6800</v>
+        <v>4900</v>
       </c>
       <c r="J12" s="3">
-        <v>6700</v>
+        <v>4800</v>
       </c>
       <c r="K12" s="3">
         <v>8500</v>
@@ -879,25 +879,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>200</v>
+      </c>
+      <c r="E14" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>700</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>300</v>
-      </c>
-      <c r="E14" s="3">
-        <v>7900</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>500</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -912,22 +912,22 @@
         <v>0</v>
       </c>
       <c r="E15" s="3">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="F15" s="3">
-        <v>3200</v>
+        <v>2300</v>
       </c>
       <c r="G15" s="3">
-        <v>3200</v>
+        <v>2300</v>
       </c>
       <c r="H15" s="3">
-        <v>3700</v>
+        <v>2700</v>
       </c>
       <c r="I15" s="3">
-        <v>3800</v>
+        <v>2700</v>
       </c>
       <c r="J15" s="3">
-        <v>3300</v>
+        <v>2400</v>
       </c>
       <c r="K15" s="3">
         <v>3000</v>
@@ -950,25 +950,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>21600</v>
+        <v>15600</v>
       </c>
       <c r="E17" s="3">
-        <v>23000</v>
+        <v>16600</v>
       </c>
       <c r="F17" s="3">
-        <v>33800</v>
+        <v>24400</v>
       </c>
       <c r="G17" s="3">
-        <v>47600</v>
+        <v>34400</v>
       </c>
       <c r="H17" s="3">
-        <v>27200</v>
+        <v>19700</v>
       </c>
       <c r="I17" s="3">
-        <v>15500</v>
+        <v>11200</v>
       </c>
       <c r="J17" s="3">
-        <v>13300</v>
+        <v>9600</v>
       </c>
       <c r="K17" s="3">
         <v>16200</v>
@@ -983,7 +983,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-22700</v>
+        <v>-16400</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>4</v>
@@ -998,7 +998,7 @@
         <v>4</v>
       </c>
       <c r="J18" s="3">
-        <v>-13200</v>
+        <v>-9600</v>
       </c>
       <c r="K18" s="3">
         <v>-15800</v>
@@ -1027,7 +1027,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>-4500</v>
+        <v>-3300</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>4</v>
@@ -1042,7 +1042,7 @@
         <v>4</v>
       </c>
       <c r="J20" s="3">
-        <v>4500</v>
+        <v>3300</v>
       </c>
       <c r="K20" s="3">
         <v>13700</v>
@@ -1054,10 +1054,10 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-14500</v>
+        <v>-10500</v>
       </c>
       <c r="E21" s="3">
-        <v>-25900</v>
+        <v>-18800</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>4</v>
@@ -1072,7 +1072,7 @@
         <v>4</v>
       </c>
       <c r="J21" s="3">
-        <v>-5400</v>
+        <v>-3900</v>
       </c>
       <c r="K21" s="3">
         <v>900</v>
@@ -1090,16 +1090,16 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G22" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="H22" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1114,25 +1114,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-14500</v>
+        <v>-10500</v>
       </c>
       <c r="E23" s="3">
-        <v>-27200</v>
+        <v>-19700</v>
       </c>
       <c r="F23" s="3">
-        <v>-35300</v>
+        <v>-25500</v>
       </c>
       <c r="G23" s="3">
-        <v>-54400</v>
+        <v>-39400</v>
       </c>
       <c r="H23" s="3">
-        <v>-29700</v>
+        <v>-21500</v>
       </c>
       <c r="I23" s="3">
-        <v>-15700</v>
+        <v>-11400</v>
       </c>
       <c r="J23" s="3">
-        <v>-8700</v>
+        <v>-6300</v>
       </c>
       <c r="K23" s="3">
         <v>-2200</v>
@@ -1144,7 +1144,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-900</v>
+        <v>-600</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>4</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
@@ -1204,25 +1204,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-13600</v>
+        <v>-9800</v>
       </c>
       <c r="E26" s="3">
-        <v>-27200</v>
+        <v>-19700</v>
       </c>
       <c r="F26" s="3">
-        <v>-35300</v>
+        <v>-25500</v>
       </c>
       <c r="G26" s="3">
-        <v>-54400</v>
+        <v>-39400</v>
       </c>
       <c r="H26" s="3">
-        <v>-29700</v>
+        <v>-21500</v>
       </c>
       <c r="I26" s="3">
-        <v>-15600</v>
+        <v>-11200</v>
       </c>
       <c r="J26" s="3">
-        <v>-8700</v>
+        <v>-6300</v>
       </c>
       <c r="K26" s="3">
         <v>-2200</v>
@@ -1234,25 +1234,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-13600</v>
+        <v>-9800</v>
       </c>
       <c r="E27" s="3">
-        <v>-27200</v>
+        <v>-19700</v>
       </c>
       <c r="F27" s="3">
-        <v>-35300</v>
+        <v>-25500</v>
       </c>
       <c r="G27" s="3">
-        <v>-54400</v>
+        <v>-39400</v>
       </c>
       <c r="H27" s="3">
-        <v>-29700</v>
+        <v>-21500</v>
       </c>
       <c r="I27" s="3">
-        <v>-15600</v>
+        <v>-11200</v>
       </c>
       <c r="J27" s="3">
-        <v>-8700</v>
+        <v>-6300</v>
       </c>
       <c r="K27" s="3">
         <v>-2200</v>
@@ -1387,7 +1387,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>4500</v>
+        <v>3300</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>4</v>
@@ -1402,7 +1402,7 @@
         <v>4</v>
       </c>
       <c r="J32" s="3">
-        <v>-4500</v>
+        <v>-3300</v>
       </c>
       <c r="K32" s="3">
         <v>-13700</v>
@@ -1414,25 +1414,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-13600</v>
+        <v>-9800</v>
       </c>
       <c r="E33" s="3">
-        <v>-27200</v>
+        <v>-19700</v>
       </c>
       <c r="F33" s="3">
-        <v>-35300</v>
+        <v>-25500</v>
       </c>
       <c r="G33" s="3">
-        <v>-54400</v>
+        <v>-39400</v>
       </c>
       <c r="H33" s="3">
-        <v>-29700</v>
+        <v>-21500</v>
       </c>
       <c r="I33" s="3">
-        <v>-15600</v>
+        <v>-11200</v>
       </c>
       <c r="J33" s="3">
-        <v>-8700</v>
+        <v>-6300</v>
       </c>
       <c r="K33" s="3">
         <v>-2200</v>
@@ -1474,25 +1474,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-13600</v>
+        <v>-9800</v>
       </c>
       <c r="E35" s="3">
-        <v>-27200</v>
+        <v>-19700</v>
       </c>
       <c r="F35" s="3">
-        <v>-35300</v>
+        <v>-25500</v>
       </c>
       <c r="G35" s="3">
-        <v>-54400</v>
+        <v>-39400</v>
       </c>
       <c r="H35" s="3">
-        <v>-29700</v>
+        <v>-21500</v>
       </c>
       <c r="I35" s="3">
-        <v>-15600</v>
+        <v>-11200</v>
       </c>
       <c r="J35" s="3">
-        <v>-8700</v>
+        <v>-6300</v>
       </c>
       <c r="K35" s="3">
         <v>-2200</v>
@@ -1567,25 +1567,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>41900</v>
+        <v>30300</v>
       </c>
       <c r="E41" s="3">
-        <v>70400</v>
+        <v>50900</v>
       </c>
       <c r="F41" s="3">
-        <v>19700</v>
+        <v>14200</v>
       </c>
       <c r="G41" s="3">
-        <v>23300</v>
+        <v>16900</v>
       </c>
       <c r="H41" s="3">
-        <v>11400</v>
+        <v>8200</v>
       </c>
       <c r="I41" s="3">
-        <v>13500</v>
+        <v>9800</v>
       </c>
       <c r="J41" s="3">
-        <v>4200</v>
+        <v>3000</v>
       </c>
       <c r="K41" s="3">
         <v>1700</v>
@@ -1597,16 +1597,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>18400</v>
+        <v>13300</v>
       </c>
       <c r="E42" s="3">
-        <v>13500</v>
+        <v>9800</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>12300</v>
+        <v>8900</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>4</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="3">
-        <v>10300</v>
+        <v>7400</v>
       </c>
       <c r="K42" s="3">
         <v>22300</v>
@@ -1627,25 +1627,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>500</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H43" s="3">
         <v>800</v>
       </c>
-      <c r="E43" s="3">
-        <v>700</v>
-      </c>
-      <c r="F43" s="3">
-        <v>1500</v>
-      </c>
-      <c r="G43" s="3">
-        <v>1600</v>
-      </c>
-      <c r="H43" s="3">
-        <v>1000</v>
-      </c>
       <c r="I43" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J43" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K43" s="3">
         <v>1100</v>
@@ -1687,25 +1687,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1800</v>
+        <v>1300</v>
       </c>
       <c r="E45" s="3">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="F45" s="3">
-        <v>5400</v>
+        <v>3900</v>
       </c>
       <c r="G45" s="3">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="H45" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="I45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J45" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K45" s="3">
         <v>400</v>
@@ -1717,25 +1717,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>63000</v>
+        <v>45500</v>
       </c>
       <c r="E46" s="3">
-        <v>86200</v>
+        <v>62400</v>
       </c>
       <c r="F46" s="3">
-        <v>25500</v>
+        <v>18500</v>
       </c>
       <c r="G46" s="3">
-        <v>38700</v>
+        <v>28000</v>
       </c>
       <c r="H46" s="3">
-        <v>13100</v>
+        <v>9500</v>
       </c>
       <c r="I46" s="3">
-        <v>14100</v>
+        <v>10200</v>
       </c>
       <c r="J46" s="3">
-        <v>15700</v>
+        <v>11300</v>
       </c>
       <c r="K46" s="3">
         <v>25600</v>
@@ -1756,7 +1756,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H47" s="3">
         <v>0</v>
@@ -1777,25 +1777,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E48" s="3">
         <v>100</v>
       </c>
       <c r="F48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G48" s="3">
+        <v>4900</v>
+      </c>
+      <c r="H48" s="3">
         <v>2800</v>
       </c>
-      <c r="G48" s="3">
-        <v>6800</v>
-      </c>
-      <c r="H48" s="3">
-        <v>3900</v>
-      </c>
       <c r="I48" s="3">
-        <v>4000</v>
+        <v>2900</v>
       </c>
       <c r="J48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K48" s="3">
         <v>100</v>
@@ -1807,25 +1807,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>114500</v>
+        <v>82800</v>
       </c>
       <c r="E49" s="3">
         <v>0</v>
       </c>
       <c r="F49" s="3">
-        <v>11700</v>
+        <v>8500</v>
       </c>
       <c r="G49" s="3">
-        <v>19500</v>
+        <v>14100</v>
       </c>
       <c r="H49" s="3">
-        <v>13900</v>
+        <v>10100</v>
       </c>
       <c r="I49" s="3">
-        <v>17100</v>
+        <v>12400</v>
       </c>
       <c r="J49" s="3">
-        <v>20600</v>
+        <v>14900</v>
       </c>
       <c r="K49" s="3">
         <v>22800</v>
@@ -1903,19 +1903,19 @@
         <v>4</v>
       </c>
       <c r="F52" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="G52" s="3">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="H52" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
       </c>
       <c r="J52" s="3">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>4</v>
@@ -1957,25 +1957,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>177800</v>
+        <v>128600</v>
       </c>
       <c r="E54" s="3">
-        <v>86400</v>
+        <v>62500</v>
       </c>
       <c r="F54" s="3">
-        <v>31600</v>
+        <v>22900</v>
       </c>
       <c r="G54" s="3">
-        <v>51000</v>
+        <v>36900</v>
       </c>
       <c r="H54" s="3">
-        <v>31700</v>
+        <v>23000</v>
       </c>
       <c r="I54" s="3">
-        <v>35200</v>
+        <v>25500</v>
       </c>
       <c r="J54" s="3">
-        <v>39400</v>
+        <v>28500</v>
       </c>
       <c r="K54" s="3">
         <v>48500</v>
@@ -2015,25 +2015,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2700</v>
+        <v>2000</v>
       </c>
       <c r="E57" s="3">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="F57" s="3">
-        <v>8200</v>
+        <v>6000</v>
       </c>
       <c r="G57" s="3">
-        <v>37600</v>
+        <v>27200</v>
       </c>
       <c r="H57" s="3">
-        <v>9300</v>
+        <v>6700</v>
       </c>
       <c r="I57" s="3">
+        <v>300</v>
+      </c>
+      <c r="J57" s="3">
         <v>400</v>
-      </c>
-      <c r="J57" s="3">
-        <v>500</v>
       </c>
       <c r="K57" s="3">
         <v>300</v>
@@ -2054,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>4400</v>
+        <v>3200</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>4</v>
@@ -2075,25 +2075,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1800</v>
+        <v>1300</v>
       </c>
       <c r="E59" s="3">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="F59" s="3">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="G59" s="3">
-        <v>2200</v>
+        <v>1600</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I59" s="3">
-        <v>2600</v>
+        <v>1900</v>
       </c>
       <c r="J59" s="3">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="K59" s="3">
         <v>1800</v>
@@ -2105,25 +2105,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4500</v>
+        <v>3300</v>
       </c>
       <c r="E60" s="3">
-        <v>2200</v>
+        <v>1600</v>
       </c>
       <c r="F60" s="3">
-        <v>10200</v>
+        <v>7400</v>
       </c>
       <c r="G60" s="3">
-        <v>18900</v>
+        <v>13700</v>
       </c>
       <c r="H60" s="3">
-        <v>9300</v>
+        <v>6700</v>
       </c>
       <c r="I60" s="3">
-        <v>3000</v>
+        <v>2100</v>
       </c>
       <c r="J60" s="3">
-        <v>1600</v>
+        <v>1100</v>
       </c>
       <c r="K60" s="3">
         <v>2100</v>
@@ -2147,10 +2147,10 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>2200</v>
+        <v>1600</v>
       </c>
       <c r="I61" s="3">
-        <v>1900</v>
+        <v>1400</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2165,22 +2165,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>23600</v>
+        <v>17100</v>
       </c>
       <c r="E62" s="3">
-        <v>7200</v>
+        <v>5200</v>
       </c>
       <c r="F62" s="3">
-        <v>3400</v>
+        <v>2500</v>
       </c>
       <c r="G62" s="3">
-        <v>16800</v>
+        <v>12200</v>
       </c>
       <c r="H62" s="3">
-        <v>8900</v>
+        <v>6400</v>
       </c>
       <c r="I62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J62" s="3">
         <v>200</v>
@@ -2285,25 +2285,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>28100</v>
+        <v>20400</v>
       </c>
       <c r="E66" s="3">
-        <v>9400</v>
+        <v>6800</v>
       </c>
       <c r="F66" s="3">
-        <v>13600</v>
+        <v>9900</v>
       </c>
       <c r="G66" s="3">
-        <v>35700</v>
+        <v>25900</v>
       </c>
       <c r="H66" s="3">
-        <v>20400</v>
+        <v>14700</v>
       </c>
       <c r="I66" s="3">
-        <v>5200</v>
+        <v>3800</v>
       </c>
       <c r="J66" s="3">
-        <v>1800</v>
+        <v>1300</v>
       </c>
       <c r="K66" s="3">
         <v>5200</v>
@@ -2449,25 +2449,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-215500</v>
+        <v>-155800</v>
       </c>
       <c r="E72" s="3">
-        <v>-201900</v>
+        <v>-146000</v>
       </c>
       <c r="F72" s="3">
-        <v>-174700</v>
+        <v>-126300</v>
       </c>
       <c r="G72" s="3">
-        <v>-310800</v>
+        <v>-224800</v>
       </c>
       <c r="H72" s="3">
-        <v>-100100</v>
+        <v>-72400</v>
       </c>
       <c r="I72" s="3">
-        <v>-70300</v>
+        <v>-50900</v>
       </c>
       <c r="J72" s="3">
-        <v>-54800</v>
+        <v>-39600</v>
       </c>
       <c r="K72" s="3">
         <v>-43500</v>
@@ -2569,25 +2569,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>149700</v>
+        <v>108300</v>
       </c>
       <c r="E76" s="3">
-        <v>77000</v>
+        <v>55700</v>
       </c>
       <c r="F76" s="3">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="G76" s="3">
-        <v>15300</v>
+        <v>11000</v>
       </c>
       <c r="H76" s="3">
-        <v>11400</v>
+        <v>8200</v>
       </c>
       <c r="I76" s="3">
-        <v>30000</v>
+        <v>21700</v>
       </c>
       <c r="J76" s="3">
-        <v>37600</v>
+        <v>27200</v>
       </c>
       <c r="K76" s="3">
         <v>43300</v>
@@ -2664,25 +2664,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-13600</v>
+        <v>-9800</v>
       </c>
       <c r="E81" s="3">
-        <v>-27200</v>
+        <v>-19700</v>
       </c>
       <c r="F81" s="3">
-        <v>-35300</v>
+        <v>-25500</v>
       </c>
       <c r="G81" s="3">
-        <v>-54400</v>
+        <v>-39400</v>
       </c>
       <c r="H81" s="3">
-        <v>-29700</v>
+        <v>-21500</v>
       </c>
       <c r="I81" s="3">
-        <v>-15600</v>
+        <v>-11200</v>
       </c>
       <c r="J81" s="3">
-        <v>-8700</v>
+        <v>-6300</v>
       </c>
       <c r="K81" s="3">
         <v>-2200</v>
@@ -2711,22 +2711,22 @@
         <v>0</v>
       </c>
       <c r="E83" s="3">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="F83" s="3">
-        <v>3200</v>
+        <v>2300</v>
       </c>
       <c r="G83" s="3">
-        <v>3200</v>
+        <v>2300</v>
       </c>
       <c r="H83" s="3">
-        <v>3700</v>
+        <v>2700</v>
       </c>
       <c r="I83" s="3">
-        <v>3800</v>
+        <v>2700</v>
       </c>
       <c r="J83" s="3">
-        <v>3300</v>
+        <v>2400</v>
       </c>
       <c r="K83" s="3">
         <v>3000</v>
@@ -2888,25 +2888,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-23800</v>
+        <v>-17200</v>
       </c>
       <c r="E89" s="3">
-        <v>-19800</v>
+        <v>-14300</v>
       </c>
       <c r="F89" s="3">
-        <v>-31700</v>
+        <v>-23000</v>
       </c>
       <c r="G89" s="3">
-        <v>-34300</v>
+        <v>-24800</v>
       </c>
       <c r="H89" s="3">
-        <v>-17300</v>
+        <v>-12500</v>
       </c>
       <c r="I89" s="3">
-        <v>-9600</v>
+        <v>-7000</v>
       </c>
       <c r="J89" s="3">
-        <v>-9100</v>
+        <v>-6600</v>
       </c>
       <c r="K89" s="3">
         <v>-9400</v>
@@ -2938,19 +2938,19 @@
         <v>-100</v>
       </c>
       <c r="F91" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="G91" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="H91" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="I91" s="3">
-        <v>-3500</v>
+        <v>-2500</v>
       </c>
       <c r="J91" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -3022,25 +3022,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4900</v>
+        <v>-3500</v>
       </c>
       <c r="E94" s="3">
-        <v>-13600</v>
+        <v>-9900</v>
       </c>
       <c r="F94" s="3">
-        <v>11300</v>
+        <v>8100</v>
       </c>
       <c r="G94" s="3">
-        <v>-13100</v>
+        <v>-9400</v>
       </c>
       <c r="H94" s="3">
-        <v>-600</v>
+        <v>-400</v>
       </c>
       <c r="I94" s="3">
-        <v>9500</v>
+        <v>6900</v>
       </c>
       <c r="J94" s="3">
-        <v>11400</v>
+        <v>8200</v>
       </c>
       <c r="K94" s="3">
         <v>9900</v>
@@ -3189,19 +3189,19 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>82300</v>
+        <v>59500</v>
       </c>
       <c r="F100" s="3">
-        <v>18200</v>
+        <v>13200</v>
       </c>
       <c r="G100" s="3">
-        <v>63200</v>
+        <v>45700</v>
       </c>
       <c r="H100" s="3">
-        <v>15800</v>
+        <v>11400</v>
       </c>
       <c r="I100" s="3">
-        <v>9500</v>
+        <v>6900</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
@@ -3219,19 +3219,19 @@
         <v>200</v>
       </c>
       <c r="E101" s="3">
-        <v>1900</v>
+        <v>1400</v>
       </c>
       <c r="F101" s="3">
-        <v>-1400</v>
+        <v>-1000</v>
       </c>
       <c r="G101" s="3">
-        <v>-1400</v>
+        <v>-1000</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
       <c r="I101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J101" s="3">
         <v>100</v>
@@ -3246,25 +3246,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-28500</v>
+        <v>-20600</v>
       </c>
       <c r="E102" s="3">
-        <v>50700</v>
+        <v>36700</v>
       </c>
       <c r="F102" s="3">
-        <v>-3600</v>
+        <v>-2600</v>
       </c>
       <c r="G102" s="3">
-        <v>14400</v>
+        <v>10400</v>
       </c>
       <c r="H102" s="3">
-        <v>-2100</v>
+        <v>-1500</v>
       </c>
       <c r="I102" s="3">
-        <v>9300</v>
+        <v>6700</v>
       </c>
       <c r="J102" s="3">
-        <v>2400</v>
+        <v>1700</v>
       </c>
       <c r="K102" s="3">
         <v>800</v>

--- a/AAII_Financials/Yearly/ACST_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ACST_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
   <si>
     <t>ACST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,52 +665,55 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43190</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42825</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42429</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42063</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -718,11 +721,11 @@
         <v>4</v>
       </c>
       <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
         <v>200</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G8" s="3" t="s">
         <v>4</v>
       </c>
@@ -732,27 +735,30 @@
       <c r="I8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
+      <c r="J8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
         <v>400</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3">
         <v>100</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G9" s="3" t="s">
         <v>4</v>
       </c>
@@ -762,27 +768,30 @@
       <c r="I9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="3">
         <v>100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>300</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3">
         <v>100</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G10" s="3" t="s">
         <v>4</v>
       </c>
@@ -792,15 +801,18 @@
       <c r="I10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
+      <c r="J10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,38 +825,42 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E12" s="3">
         <v>2500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>39900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>13000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>4900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>4800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>8500</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,69 +888,78 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>33900</v>
+      </c>
+      <c r="E14" s="3">
         <v>200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>5700</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>700</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>300</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
         <v>900</v>
-      </c>
-      <c r="F15" s="3">
-        <v>2300</v>
       </c>
       <c r="G15" s="3">
         <v>2300</v>
       </c>
       <c r="H15" s="3">
-        <v>2700</v>
+        <v>2300</v>
       </c>
       <c r="I15" s="3">
         <v>2700</v>
       </c>
       <c r="J15" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K15" s="3">
         <v>2400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3000</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -944,38 +969,42 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>52200</v>
+      </c>
+      <c r="E17" s="3">
         <v>15600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>16600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>24400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>34400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>19700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>11200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>16200</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -983,11 +1012,11 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-16400</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G18" s="3" t="s">
         <v>4</v>
       </c>
@@ -997,15 +1026,18 @@
       <c r="I18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="3">
         <v>-9600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-15800</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1018,8 +1050,9 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1027,11 +1060,11 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-3300</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1041,27 +1074,30 @@
       <c r="I20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" s="3">
         <v>3300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>13700</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3">
         <v>-10500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-18800</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1071,105 +1107,117 @@
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3">
         <v>-3900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>900</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>400</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-52000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-10500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-19700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-25500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-39400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-21500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-11400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-6300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2200</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E24" s="3">
         <v>-600</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
+      <c r="G24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-100</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1197,69 +1245,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-42400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-9800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-19700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-25500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-39400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-21500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-11200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-6300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2200</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-42400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-9800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-19700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-25500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-39400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-21500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-11200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-6300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2200</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1287,9 +1344,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1317,9 +1377,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1347,9 +1410,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1377,9 +1443,12 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1387,11 +1456,11 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="F32" s="3">
         <v>3300</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G32" s="3" t="s">
         <v>4</v>
       </c>
@@ -1401,45 +1470,51 @@
       <c r="I32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="3">
         <v>-3300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-13700</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-42400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-9800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-19700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-25500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-39400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-21500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-11200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-6300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2200</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1467,74 +1542,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-42400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-9800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-19700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-25500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-39400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-21500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-11200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-6300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2200</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43190</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42825</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42429</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42063</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1547,8 +1631,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1561,98 +1646,108 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>27900</v>
+      </c>
+      <c r="E41" s="3">
         <v>30300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>50900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>14200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>16900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>9800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1700</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
         <v>13300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>9800</v>
       </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
       <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
         <v>8900</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
+      <c r="I42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
         <v>7400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>22300</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E43" s="3">
         <v>500</v>
       </c>
       <c r="F43" s="3">
+        <v>500</v>
+      </c>
+      <c r="G43" s="3">
         <v>1100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1100</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1678,71 +1773,80 @@
         <v>0</v>
       </c>
       <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3">
         <v>100</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1300</v>
+        <v>600</v>
       </c>
       <c r="E45" s="3">
         <v>1100</v>
       </c>
       <c r="F45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G45" s="3">
         <v>3900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>400</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>45500</v>
+        <v>29300</v>
       </c>
       <c r="E46" s="3">
+        <v>45300</v>
+      </c>
+      <c r="F46" s="3">
         <v>62400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>18500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>28000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>9500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>10200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>11300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>25600</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1752,8 +1856,8 @@
       <c r="E47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
+      <c r="F47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
@@ -1761,8 +1865,8 @@
       <c r="H47" s="3">
         <v>0</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>4</v>
+      <c r="I47" s="3">
+        <v>0</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>4</v>
@@ -1770,69 +1874,78 @@
       <c r="K47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>600</v>
+      </c>
+      <c r="F48" s="3">
+        <v>100</v>
+      </c>
+      <c r="G48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H48" s="3">
+        <v>4900</v>
+      </c>
+      <c r="I48" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J48" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K48" s="3">
         <v>300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="L48" s="3">
         <v>100</v>
       </c>
-      <c r="F48" s="3">
-        <v>2100</v>
-      </c>
-      <c r="G48" s="3">
-        <v>4900</v>
-      </c>
-      <c r="H48" s="3">
-        <v>2800</v>
-      </c>
-      <c r="I48" s="3">
-        <v>2900</v>
-      </c>
-      <c r="J48" s="3">
-        <v>300</v>
-      </c>
-      <c r="K48" s="3">
-        <v>100</v>
-      </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>49300</v>
+      </c>
+      <c r="E49" s="3">
         <v>82800</v>
       </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
       <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
         <v>8500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>14100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>10100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>12400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>14900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>22800</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1860,9 +1973,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1890,9 +2006,12 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1902,27 +2021,30 @@
       <c r="E52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="3">
         <v>500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>600</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
       <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
         <v>2000</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1950,39 +2072,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>79100</v>
+      </c>
+      <c r="E54" s="3">
         <v>128600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>62500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>22900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>36900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>23000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>25500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>28500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>48500</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1995,8 +2123,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2009,56 +2138,60 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E57" s="3">
         <v>2000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>27200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>300</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>3200</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2068,69 +2201,78 @@
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E59" s="3">
         <v>1300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1600</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I59" s="3">
+      <c r="I59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J59" s="3">
         <v>1900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1800</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E60" s="3">
         <v>3300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>13700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2100</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2147,50 +2289,56 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>1600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1400</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E62" s="3">
         <v>17100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>5200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>12200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>6400</v>
-      </c>
-      <c r="I62" s="3">
-        <v>200</v>
       </c>
       <c r="J62" s="3">
         <v>200</v>
       </c>
       <c r="K62" s="3">
+        <v>200</v>
+      </c>
+      <c r="L62" s="3">
         <v>3100</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2218,9 +2366,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2248,9 +2399,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2278,39 +2432,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E66" s="3">
         <v>20400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>25900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>14700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5200</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2323,8 +2483,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2352,9 +2513,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2382,9 +2546,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2412,9 +2579,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2442,39 +2612,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-198300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-155800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-146000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-126300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-224800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-72400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-50900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-39600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-43500</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2502,9 +2678,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2532,9 +2711,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2562,39 +2744,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>68000</v>
+      </c>
+      <c r="E76" s="3">
         <v>108300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>55700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>13000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>11000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>8200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>21700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>27200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>43300</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2622,74 +2810,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43190</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42825</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42429</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42063</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-42400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-9800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-19700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-25500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-39400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-21500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-11200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-6300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2200</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2702,38 +2899,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
         <v>900</v>
-      </c>
-      <c r="F83" s="3">
-        <v>2300</v>
       </c>
       <c r="G83" s="3">
         <v>2300</v>
       </c>
       <c r="H83" s="3">
-        <v>2700</v>
+        <v>2300</v>
       </c>
       <c r="I83" s="3">
         <v>2700</v>
       </c>
       <c r="J83" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K83" s="3">
         <v>2400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3000</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2761,9 +2962,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2791,9 +2995,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2821,9 +3028,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2851,9 +3061,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2881,39 +3094,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-17200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-14300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-23000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-24800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-12500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-7000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-6600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-9400</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2926,8 +3145,9 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2935,29 +3155,32 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-300</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-500</v>
       </c>
       <c r="H91" s="3">
         <v>-500</v>
       </c>
       <c r="I91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J91" s="3">
         <v>-2500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2985,9 +3208,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3015,39 +3241,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-9900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>8100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-9400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>6900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>8200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>9900</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3060,8 +3292,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3089,9 +3322,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3119,9 +3355,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3149,9 +3388,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3179,97 +3421,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>59500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>13200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>45700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>11400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>6900</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1400</v>
-      </c>
-      <c r="F101" s="3">
-        <v>-1000</v>
       </c>
       <c r="G101" s="3">
         <v>-1000</v>
       </c>
       <c r="H101" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>200</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-20600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>36700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>10400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>6700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>800</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
